--- a/!parsed_items_100/1299/1299_2599-2700.xlsx
+++ b/!parsed_items_100/1299/1299_2599-2700.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -650,17 +650,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Массажная свеча Dona Scented Massage</t>
+          <t>Концентрированный женский аромат с</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-14364-1299</t>
+          <t>id-17171-1299</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -671,45 +671,45 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>Концентрированный женский аромат с феромонами Musk&amp;amp</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17171/17171_17171_650.jpg</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажная свеча с феромонами и афродизиаками Страсть DONA Scented Massage Candle Sassy Aroma: Tropical Tease необходимый атрибут романтического вечера. Нежное пламя и искрящийся оттенок создают эротический полумрак. Манящий аромат феромонов и афродизиаков витает в воздухе, пробуждая обоюдную неудержимую страсть. Всё помещение наполняется теплым опьяняющим ароматом желания. Подождите немного пока растопиться соевое масло, погасите пламя любви и на расстояние от нежного тела, капните каплю волшебного тепла и начинайте массаж. Массажные движения должны быть чувственными: поглаживания, растирания, лёгкие похлопывания. Эротический массаж  это способ налаживания прочной связи между партнерами, ласковые ладошки легко выражают нежность и доверие, столь необходимое в любовных отношениях. После массажа кожа становиться мягкой, шелковистой, пропитанной жизненной энергией и обновлённой. Искусственно синтезированный человеческий феромон снимает внутреннее напряжение, улучшает настроение и провоцирует сексуальное возбуждение, усиливая взаимное влечение партнеров.Tropical Tease  Страсть  тропическое наслаждение: Бодрящий аромат лилового мангостина выделяется из микса ароматов свежего мандарина и жасмина, пробуждает чувственность, разжигает чувственную страсть в отношениях. Массажная свеча Dona Scented Massage Candle Sassy Aroma Tropical Tease (135 г).  Массажная свеча Dona Scented Massage Candle Sassy Aroma Tropical Tease (135 г). Модель: dona-40557. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">.Концентрированный женский аромат с феромонами Musk&amp;Pheromone (5 мл).  Концентрированный женский аромат с феромонами Musk. Модель: parfpr-musk-w. Франция-Россия. Pheromone (5 мл). Цвет: для женщин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>135 г</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>135 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -735,7 +735,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -755,32 +755,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Массажная свеча Dona Scented Massage</t>
+          <t>Кожаный комплект со шнуровкой MARTHA ML</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-14363-1299</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>id-18516-1299</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>99999</v>
@@ -790,42 +798,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18516/18516_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18516/18516_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажная свеча с феромонами и афродизиаками Флирт DONA Scented Massage Candle Flirty Aroma: Blushing Berry необходимый атрибут романтического вечера. Нежное пламя и искрящийся оттенок создают эротический полумрак. Манящий аромат феромонов и афродизиаков витает в воздухе, пробуждая обоюдную неудержимую страсть. Всё помещение наполняется теплым опьяняющим ароматом желания. Подождите немного пока растопиться соевое масло, погасите пламя любви и на расстояние от нежного тела, капните каплю волшебного тепла и начинайте массаж. Массажные движения должны быть чувственными: поглаживания, растирания, лёгкие похлопывания. Эротический массаж  это способ налаживания прочной связи между партнерами, ласковые ладошки легко выражают нежность и доверие, столь необходимое в любовных отношениях. После массажа</t>
+          <t xml:space="preserve">Сексапильный и соблазнительный комплект белья от Passion станет отличным подарком для девушек, которые всегда желают выглядеть идеально! Он состоит из интересного топа, юбочки и трусиков-стринги. Материал под кожу чувственно облегает тело, подчеркивая его роскошные изгибы. Оригинальная зона декольте притягивает внимание к груди. Пикантная шнуровка добавляет белью особый шарм. Кожаный комплект со шнуровкой MARTHA ML.  Кожаный комплект со шнуровкой MARTHA ML. Модель: passion-marthaMLbr. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Юбки, брюки, шорты. Цвет: коричневый с черным. Материал: 90% полиэстер, 10% эластан (эко кожа). Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>90% полиэстер, 10% эластан (эко кожа)</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>135 г</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>135 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
@@ -851,7 +863,7 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>юбка, топ, стринги</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -871,32 +883,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Массажная свеча для оральных ласк Dona</t>
+          <t>Черные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-14362-1299</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>id-20201-1299</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>99999</v>
@@ -906,42 +926,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20201/20201_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20201/20201_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вкусовая массажная свеча с феромонами и ароматом Шоколадный мусс DONA Kissable Massage Candle Chocolate Mousse необходимый атрибут романтического вечера. Нежное пламя и искрящийся оттенок создают эротический полумрак. Манящий аромат феромонов и афродизиаков витает в воздухе, пробуждая обоюдную неудержимую страсть. Всё помещение наполняется теплым опьяняющим ароматом желания. Подождите немного пока растопиться соевое масло, погасите пламя любви и на расстояние от нежного тела, капните каплю волшебного тепла и начинайте массаж. Массажные движения должны быть чувственными: поглаживания, растирания, лёгкие похлопывания и, конечно же, страстные поцелую. Эротический массаж  это способ налаживания прочной связи между партнерами, ласковые ладошки легко выражают нежность и доверие, столь необходимое в любовных отношениях. После массажа кожа становиться мягкой, шелковистой, пропитанной жизненной энергией и обновлённой. Искусственно синтезированный человеческий феромон снимает внутреннее напряжение, улучшает настроение и провоцирует сексуальное возбуждение, усиливая взаимное влечение партнеров. Шоколад  способствует выработке эндорфинов  гормонов счастья и даёт энергию для осуществления желания. Содержит вещество, которое делает кожу более восприимчивой к ласкам. Время непрерывного горения-72 часа. Массажная свеча для оральных ласк Dona Kissable Massage Candle Chocolate Mousse (135 г).  Массажная свеча для оральных ласк Dona Kissable Massage Candle Chocolate Mousse (135 г). Модель: dona-40566. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Черные колготки с имитацией чулок Passion.  Черные колготки с имитацией чулок Passion. Модель: passion-s002-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>80% полиамид, 20% эластан</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>135 г</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>135 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -987,32 +1011,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Массажная свеча для оральных ласк Dona</t>
+          <t>Белые колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-14347-1299</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>id-20200-1299</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>99999</v>
@@ -1022,42 +1054,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20200/20200_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20200/20200_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вкусовая массажная свеча с феромонами и ароматом Ванильный крем DONA Kissable Massage Candle Vanilla Buttercream необходимый атрибут романтического вечера. Нежное пламя и искрящийся оттенок создают эротический полумрак. Манящий аромат феромонов и афродизиаков витает в воздухе, пробуждая обоюдную неудержимую страсть. Всё помещение наполняется теплым опьяняющим ароматом желания. Подождите немного пока растопиться соевое масло, погасите пламя любви и на расстояние от нежного тела, капните каплю волшебного тепла и начинайте массаж. Массажные движения должны быть чувственными: поглаживания, растирания, лёгкие похлопывания и, конечно же, страстные поцелую. Эротический массаж  это способ налаживания прочной связи между партнерами, ласковые ладошки легко выражают нежность и доверие, столь необходимое в любовных отношениях. После массажа кожа становиться мягкой, шелковистой, пропитанной жизненной энергией и обновлённой. Искусственно синтезированный человеческий феромон снимает внутреннее напряжение, улучшает настроение и провоцирует сексуальное возбуждение, усиливая взаимное влечение партнеров. Ваниль - сделает любые ласки сладкими, вызывая эйфорию и рождая сексуальные фантазии. Время непрерывного горения-72 часа. Массажная свеча для оральных ласк Dona Kissable Massage Candle Vanila Buttercream (135 г).  Массажная свеча для оральных ласк Dona Kissable Massage Candle Vanila Buttercream (135 г). Модель: dona-40567. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Аксессуары для игр &gt; Наборы и аксессуары. Элитная продукция &gt; Косметическая продукция. Элитная продукция. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s002-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>80% полиамид, 20% эластан</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t>135 г</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t>135 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
@@ -1103,32 +1139,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Массажная свеча для оральных ласк Dona</t>
+          <t>Черные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-14361-1299</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>id-20204-1299</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>99999</v>
@@ -1138,42 +1182,46 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20204/20204_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20204/20204_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вкусовая массажная свеча с феромонами и ароматом Клубничное суфле DONA Kissable Massage Candle Strawberry Souffle необходимый атрибут романтического вечера. Нежное пламя и искрящийся оттенок создают эротический полумрак. Манящий аромат феромонов и афродизиаков витает в воздухе, пробуждая обоюдную неудержимую страсть. Всё помещение наполняется теплым опьяняющим ароматом желания. Подождите немного пока растопиться соевое масло, погасите пламя любви и на расстояние от нежного тела, капните каплю волшебного тепла и начинайте массаж. Массажные движения должны быть чувственными: поглаживания, растирания, лёгкие похлопывания и, конечно же, страстные поцелую. Эротический массаж  это способ налаживания прочной связи между партнерами, ласковые ладошки легко выражают нежность и доверие, столь необходимое в любовных отношениях. После массажа кожа становиться мягкой, шелковистой, пропитанной жизненной энергией и обновлённой. Искусственно синтезированный человеческий феромон снимает внутреннее напряжение, улучшает настроение и провоцирует сексуальное возбуждение, усиливая взаимное влечение партнеров. Клубника  ароматная и замечательная на вкус. Содержит самые приятные для нашего организма вещества  эндорфины и является секретом идеальной любовницы. Время непрерывного горения-72 часа. Массажная свеча для оральных ла</t>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Черные колготки с имитацией чулок Passion.  Черные колготки с имитацией чулок Passion. Модель: passion-s004-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>80% полиамид, 20% эластан</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>135 г</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>135 г</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W6" t="inlineStr"/>
@@ -1219,32 +1267,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Подарочный набор съедобных массажных</t>
+          <t>Белые колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-18176-1299</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>id-20202-1299</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>99999</v>
@@ -1254,28 +1310,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20202/20202_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20202/20202_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротический массаж с маслом - это изысканный десерт на двоих. Расслабляйтесь и наслаждайтесь моментом удовольствия. Сбалансированная натуральная масляная основа и комплекс витаминов - Е, А, С, D заботятся о нежной коже, делая её сияющей, ухоженной, гладкой и шелковистой. Нежирная и длительная формула скольжения - увлажняет и омолаживает кожу. Искусственно синтезированный человеческий феромон снимает внутреннее напряжение, улучшает настроение и провоцирует сексуальное возбуждение, усиливая взаимное влечение партнеров. Продемонстрируй свою силу любви чувственными поглаживаниями, растираниями, шлепками или соблазнительными поцелуями воздействуя на вкусовые рецепторы страсти. В наборе 3 самых популярных вкуса: Шоколадный мусс, Ванильный крем, Клубничное суфле. Подарите незабываемые впечатления своей второй половинке! Сделайте друг друга счастливей и здоровее!.Подарочный набор съедобных массажных масел Dona (ваниль, шоколад, клубника по 30 мл).  Подарочный набор съедобных массажных масел Dona (ваниль, шоколад, клубника по 30 мл). Модель: dona-40601. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Смазки, косметика &gt; Подарочные наборы. Батареек нет в комплекте. Бренд: Wisteria. </t>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s004-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Экстра класс</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>80% полиамид, 20% эластан</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
@@ -1311,7 +1375,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>3 бутылочки по 30 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1331,13 +1395,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DONNA</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1347,22 +1411,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Вискозный пеньюар со светлым верхом</t>
+          <t>Черные колготки в сеточку с имитацией</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-17861-1299</t>
+          <t>id-20245-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1374,10 +1438,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20245/20245_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20245/20245_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вискозный пеньюар со светлым верхом ANDREA 4XL.  Вискозный пеньюар со светлым верхом ANDREA 4XL. Модель: donna-andrea4xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный, молочный. Материал: 95% вискоза, 5% эластан. Батареек нет в комплекте. Бренд: DONNA. </t>
+          <t xml:space="preserve">.Черные колготки в сеточку с имитацией чулок Passion.  Черные колготки в сеточку с имитацией чулок Passion. Модель: passion-s005-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1397,7 +1465,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>95% вискоза, 5% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1435,7 +1503,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>пеньюар</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1455,13 +1523,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DONNA</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1471,22 +1539,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Вискозный пеньюар с кружевом DIANA 4XL</t>
+          <t>Красные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-17863-1299</t>
+          <t>id-20246-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -1498,10 +1566,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20246/20246_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20246/20246_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вискозный пеньюар с кружевом DIANA 4XL.  Вискозный пеньюар с кружевом DIANA 4XL. Модель: donna-diana4xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: темно-синий. Материал: 95% вискоза, 5% эластан. Батареек нет в комплекте. Бренд: DONNA. </t>
+          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Красные колготки с имитацией чулок Passion.  Красные колготки с имитацией чулок Passion. Модель: passion-s005-slr. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: красный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1521,7 +1593,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>95% вискоза, 5% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1559,7 +1631,7 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>пеньюар</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -1579,13 +1651,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DONNA</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1595,22 +1667,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Вискозный пеньюар с кружевными</t>
+          <t>Красные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-17856-1299</t>
+          <t>id-20205-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1622,10 +1694,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20205/20205_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20205/20205_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вискозный пеньюар с кружевными вставками EVITA 4XL.  Вискозный пеньюар с кружевными вставками EVITA 4XL. Модель: donna-evita4xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% вискоза, 5% полиамид, 5% эластан. Батареек нет в комплекте. Бренд: DONNA. </t>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Красные колготки с имитацией чулок Passion.  Красные колготки с имитацией чулок Passion. Модель: passion-s006-slr. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: красный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1645,7 +1721,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>90% вискоза, 5% полиамид, 5% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1683,7 +1759,7 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>пеньюар</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
@@ -1703,13 +1779,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DONNA</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1719,22 +1795,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Черный вискозный пеньюар KARO 3XL</t>
+          <t>Белые колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-20815-1299</t>
+          <t>id-20207-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -1746,10 +1822,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20207/20207_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20207/20207_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черный вискозный пеньюар KARO 3XL.  Черный вискозный пеньюар KARO 3XL. Модель: donna-karo3xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% вискоза, 5% полиамид, 5% эластан. Батареек нет в комплекте. Бренд: DONNA. </t>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s006-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1769,7 +1849,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>90% вискоза, 5% полиамид, 5% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -1827,13 +1907,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DONNA</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1843,22 +1923,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Вискозный пеньюар с кружевными</t>
+          <t>Черные контактные колготки Passion</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-17862-1299</t>
+          <t>id-20210-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1870,10 +1950,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20210/20210_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20210/20210_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вискозный пеньюар с кружевными вставками MARI 4XL.  Вискозный пеньюар с кружевными вставками MARI 4XL. Модель: donna-mari4xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: молочный. Материал: 90% вискоза, 5% полиамид, 5% эластан. Батареек нет в комплекте. Бренд: DONNA. </t>
+          <t xml:space="preserve">Колготки с имитацией трусиков с доступом произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Черные контактные колготки Passion.  Черные контактные колготки Passion. Модель: passion-s012-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1893,7 +1977,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>90% вискоза, 5% полиамид, 5% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1931,7 +2015,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>пеньюар</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -1951,13 +2035,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DONNA</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1967,22 +2051,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Вискозный пеньюар с кружевом и розовыми</t>
+          <t>Белые контактные колготки Passion</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-17859-1299</t>
+          <t>id-20209-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -1994,10 +2078,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20209/20209_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20209/20209_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вискозный пеньюар с кружевом и розовыми вставками NANCY 3XL.  Вискозный пеньюар с кружевом и розовыми вставками NANCY 3XL. Модель: donna-nancy3xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный с розовым. Материал: 90% вискоза, 10% эластан. Батареек нет в комплекте. Бренд: DONNA. </t>
+          <t xml:space="preserve">Колготки с имитацией трусиков с доступом произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые контактные колготки Passion.  Белые контактные колготки Passion. Модель: passion-s012-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2017,7 +2105,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>90% вискоза, 10% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -2075,13 +2163,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DONNA</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2091,22 +2179,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Вискозный пеньюар с кружевом REGINA 4XL</t>
+          <t>Черные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-20816-1299</t>
+          <t>id-20249-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2118,10 +2206,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20249/20249_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20249/20249_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вискозный пеньюар с кружевом REGINA 4XL.  Вискозный пеньюар с кружевом REGINA 4XL. Модель: donna-regina4xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 95% вискоза, 5% эластан. Батареек нет в комплекте. Бренд: DONNA. </t>
+          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Черные колготки с имитацией чулок Passion.  Черные колготки с имитацией чулок Passion. Модель: passion-s013-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2141,7 +2233,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>95% вискоза, 5% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -2199,50 +2291,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DREAM TOYS</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Силиконовый анальный вибратор на</t>
+          <t>Красные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-11620-1299</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>id-20248-1299</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>99999</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Силиконовый анальный вибратор на присоске Ribbed Torpedo (10 режимов)</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20248/20248_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20248/20248_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Игрушка выполненна из 100%-го силикона, имеет мощную присоску для фиксации на ровной поверхности. Ребристая поверхность обеспечивает дополнительную стимуляцию. Силиконовый анальный вибратор на присоске Ribbed Torpedo (10 режимов).  Силиконовый анальный вибратор на присоске Ribbed Torpedo (10 режимов). Модель: dreamt-20719. Секс-игрушки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: черный. силикон высокого качества, пластикБренд: DREAM TOYS. </t>
+          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Красные колготки с имитацией чулок Passion.  Красные колготки с имитацией чулок Passion. Модель: passion-s013-slr. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: красный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2255,7 +2359,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>80% полиамид, 20% эластан</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
@@ -2270,15 +2378,9 @@
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
@@ -2297,7 +2399,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 3-3,5 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
@@ -2317,13 +2419,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DREAM TOYS</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2333,16 +2435,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Двусторонний гибкий реалистик Flesh XL</t>
+          <t>Белые колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-15041-1299</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+          <t>id-20250-1299</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>99999</v>
@@ -2352,15 +2462,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20250/20250_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20250/20250_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Двусторонний гибкий реалистик Flesh XL.  Двусторонний гибкий реалистик Flesh XL. Модель: dreamt-20742. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Двойные. Цвет: телесный. Материал: ПВХ. Батареек нет в комплекте. Бренд: DREAM TOYS. </t>
+          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s013-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Гонконг</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2375,7 +2489,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>ПВХ</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -2392,25 +2506,15 @@
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>46</v>
-      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>4.3</v>
-      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2443,32 +2547,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DREAM TOYS</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Удлиняющая пенис насадка с пупырышками</t>
+          <t>Черные контактные колготки с</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-11714-1299</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>id-20247-1299</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>99999</v>
@@ -2478,30 +2590,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20247/20247_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20247/20247_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Удлиняющая пенис насадка с пупырышками Penis Extender.  Удлиняющая пенис насадка с пупырышками Penis Extender. Модель: dreamt-50011. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; Без вибрации. Увеличение пениса &gt; Удлиняющие насадки, пенисы для ношения. Цвет: телесный. Материал: латекс. Батареек нет в комплекте. Бренд: DREAM TOYS. </t>
+          <t xml:space="preserve">.Черные контактные колготки с фантазийным узором Passion.  Черные контактные колготки с фантазийным узором Passion. Модель: passion-s015-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -2559,32 +2675,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Аксессуары для игрушек эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DURACELL</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Набор из двух алкалиновых батареек</t>
+          <t>Классические черные чулочки под пояс на</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-21641-1299</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+          <t>id-21893-1299</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>99999</v>
@@ -2594,15 +2718,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21893/21893_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21893/21893_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Набор из двух алкалиновых батареек Duracell AA (2 шт).  Набор из двух алкалиновых батареек Duracell AA (2 шт). Модель: duracell-5453. Батарейки. Батарейки &gt; AA, 1,5 V (пальчиковые). Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: DURACELL. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические черные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер).  Классические черные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер). Модель: passion-st001-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2615,7 +2743,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
         <is>
@@ -2651,7 +2783,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2 шт.</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2671,32 +2803,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Аксессуары для игрушек эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DURACELL</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Набор из 4-х батареек DURACELL Alkaline</t>
+          <t>Классические красные чулочки под пояс</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-20062-1299</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+          <t>id-23066-1299</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>99999</v>
@@ -2706,15 +2846,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23066/23066_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Набор из 4-х батареек DURACELL Alkaline  (тип AAA).  Набор из 4-х батареек DURACELL Alkaline  (тип AAA). Модель: duracell-alkaine4AAA. Батарейки. Батарейки &gt; AAA, 1,5 V (мизинчиковые). Материал: AAA 1,5V мизинчиковые. Батареек нет в комплекте. Бренд: DURACELL. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические красные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер).  Классические красные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер). Модель: passion-st001-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Бельгия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2729,7 +2873,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>AAA 1,5V мизинчиковые</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -2767,7 +2911,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>4 батарейки в наборе</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2787,32 +2931,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DUREX</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Презервативы классические DUREX CLASSIC</t>
+          <t>Классические белые чулочки под пояс на</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-19713-1299</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t>id-23068-1299</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>99999</v>
@@ -2822,15 +2974,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23068/23068_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы классические DUREX CLASSIC (12 шт).  Презервативы классические DUREX CLASSIC (12 шт). Модель: durex-classic12. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: DUREX. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические белые чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер).  Классические белые чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер). Модель: passion-st001-mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2845,7 +3001,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -2860,21 +3016,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X20" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19.5</v>
-      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
@@ -2893,7 +3039,7 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>12 штук в упаковке</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -2913,32 +3059,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DUREX</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Презервативы ультратонкие DUREX</t>
+          <t>Классические красные чулочки под пояс</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-19718-1299</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+          <t>id-23065-1299</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>99999</v>
@@ -2948,15 +3102,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23065/23065_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы ультратонкие DUREX INVISIBLE (12 шт).  Презервативы ультратонкие DUREX INVISIBLE (12 шт). Модель: durex-invisible12. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: DUREX. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические красные чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер).  Классические красные чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер). Модель: passion-st001-smr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2971,7 +3129,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -2986,21 +3144,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W21" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X21" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>18</v>
-      </c>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
@@ -3019,7 +3167,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>12 штук в упаковке</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3039,32 +3187,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DUREX</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Презервативы увеличенного размера DUREX</t>
+          <t>Классические белые чулочки под пояс на</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-19715-1299</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+          <t>id-23067-1299</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>99999</v>
@@ -3074,15 +3230,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23067/23067_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы увеличенного размера DUREX XXL (12 шт).  Презервативы увеличенного размера DUREX XXL (12 шт). Модель: durex-xxl12. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: DUREX. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические белые чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер).  Классические белые чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер). Модель: passion-st001-smw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3097,7 +3257,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -3112,21 +3272,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X22" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>22</v>
-      </c>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
@@ -3145,7 +3295,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>12 штук в упаковке</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
@@ -3165,32 +3315,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Презервативы</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DUREX</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Презервативы увеличенного размера DUREX</t>
+          <t>Черные чулочки под пояс с полосатой</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-19716-1299</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+          <t>id-21873-1299</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>99999</v>
@@ -3200,15 +3358,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21873/21873_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Презервативы увеличенного размера DUREX XXL (3 шт).  Презервативы увеличенного размера DUREX XXL (3 шт). Модель: durex-xxl3. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: латекс. Батареек нет в комплекте. Бренд: DUREX. </t>
+          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Черные чулочки под пояс с полосатой резинкой Passion (17 den, 3.4 размер).  Черные чулочки под пояс с полосатой резинкой Passion (17 den, 3.4 размер). Модель: passion-st002-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3223,7 +3385,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>100% полиамид</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -3238,21 +3400,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="X23" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>22</v>
-      </c>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -3271,7 +3423,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t xml:space="preserve">3 штуки в упаковке </t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3291,32 +3443,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EASY GLIDE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Анальный обезболивающий лубрикант</t>
+          <t>Черные чулочки под пояс с полосатой</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-24367-1299</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+          <t>id-21874-1299</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>99999</v>
@@ -3326,15 +3486,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21874/21874_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Наслаждайтесь комфортным анальным проникновением с помощью смазки Anal Relaxing.Смазка на водной основе мягкая и скользкая. Обладает легким обезболивающим эффектом, а также подходит для использования с презервативами. Анальный обезболивающий лубрикант EasyGlide Anal Relaxing Lubricant (150 мл).  Анальный обезболивающий лубрикант EasyGlide Anal Relaxing Lubricant (150 мл). Модель: easyglide-021. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EASY GLIDE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Черные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер).  Черные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер). Модель: passion-st002-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3347,21 +3511,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>100% полиамид</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
-          <t>150 мл</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>150 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -3387,7 +3551,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3407,32 +3571,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>EASY GLIDE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Анальный лубрикант на водной основе</t>
+          <t>Красные чулочки под пояс с полосатой</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-24369-1299</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+          <t>id-23091-1299</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>99999</v>
@@ -3442,15 +3614,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23091/23091_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23091/23091_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">EasyGlide - это высококачественная анальная смазка на водной основе, произведенная сертифицированным немецким производителем.Специальный нежирный состав легко смывается водой и не оставляет следов на теле и одежде.Благодаря приятной на ощупь консистенции, отличным смазывающим свойствам и оптимальному количеству, EasyGlide идеально подходит для полноценного и беззаботного секса.Смазка подходит для использования с латексными презервативами. Она протестирована дерматологами. Не имеет запаха и цвета.Нанесите небольшое количество геля на желаемую часть тела. Он облегчит получение удовольствия от анального секса. Подходит как для новичков, так и для продвинутых!.Анальный лубрикант на водной основе EasyGlide Anal Lubricant (150 мл).  Анальный лубрикант на водной основе EasyGlide Anal Lubricant (150 мл). Модель: easyglide-27520024. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EASY GLIDE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Красные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер).  Красные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер). Модель: passion-st002-smr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3463,21 +3639,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>100% полиамид</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
-          <t>150 мл</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr">
         <is>
-          <t>150 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -3523,32 +3699,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>EASY GLIDE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cмазка на силиконовой основе EasyGlide</t>
+          <t>Черные чулочки под пояс с полосатой</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-24371-1299</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+          <t>id-21872-1299</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>99999</v>
@@ -3558,15 +3742,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21872/21872_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">EasyGlide Silicon - силиконовая смазка с чрезвычайно длительным действием, которая подходит для анального и вагинального секса.Превосходное немецкое качество, дерматологически протестировано и одобрено, продукт соответствует строгим стандартам ЕС.Лубрикант обеспечивает длительное ощущение смазывающей способности, поэтому его также можно идеально использовать для массажа тела. Он не растворяется в воде, поэтому его можно использовать в душе или ванной, но при этом легко смывается с мылом. Cмазка на силиконовой основе EasyGlide Siliconen Lubricant (150 мл).  Cмазка на силиконовой основе EasyGlide Siliconen Lubricant (150 мл). Модель: easyglide-27520031. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Смазки, косметика &gt; Вагинальные смазки. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EASY GLIDE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Черные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер).  Черные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер). Модель: passion-st002-xlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3579,21 +3767,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>100% полиамид</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t>150 мл</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>150 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -3619,7 +3807,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3639,13 +3827,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>EASY GLIDE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3655,16 +3843,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cмазка с согревающим эффектомEasyGlide</t>
+          <t>Красные чулочки под пояс с полосатой</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-24370-1299</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+          <t>id-23090-1299</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>99999</v>
@@ -3674,15 +3870,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23090/23090_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23090/23090_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">EasyGlide Anal Warming - это интимная смазка, которая доставит обоим партнёрам чувственные ощущения. Она содержит уникальный ингредиент, который согревает кожу при контакте и дает ощущение тепла.Особенности:     Согревающий эффект    Подходит для использования с латексными презервативами    Одобрена дерматологамиСпециальный состав легко смывается водой и не оставляет нежирных следов.Благодаря консистенции, приятной на ощупь, отличным смазывающим свойствам и оптимальному количеству, EasyGlide идеально подходит для полноценного и беззаботного секса. Cмазка с согревающим эффектомEasyGlide Warming Lubricant (150 мл).  Cмазка с согревающим эффектомEasyGlide Warming Lubricant (150 мл). Модель: easyglide-27520048. Косметика, препараты. Смазки, косметика &gt; Возбуждающие смазки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EASY GLIDE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Красные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер).  Красные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер). Модель: passion-st002-xlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3695,21 +3895,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>100% полиамид</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>150 мл</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
-          <t>150 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W27" t="inlineStr"/>
@@ -3755,32 +3955,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>EASY GLIDE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Охлаждающий лубрикант на водной основе</t>
+          <t>Графитовые чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-24368-1299</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+          <t>id-21879-1299</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>99999</v>
@@ -3790,15 +3998,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21879/21879_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21879/21879_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21879/21879_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">EasyGlide Cooling Lubricant  - это интимная смазка, доставляющая чувственные ощущения обоим партнёрам. Она содержит уникальные ингредиенты, которые охлаждают кожу при контакте и дарят ощущение свежести.Подходит для использования с латексными презервативами.Нанесите столько смазки на желаемую часть тела и почувствуйте приятный холодок. Охлаждающий эффект этой смазки приятно ощущается на коже и придает сексуальный оттенок.Для чудесного ощущения свежести!.Охлаждающий лубрикант на водной основе EasyGlide Cooling Lubricant (150 мл).  Охлаждающий лубрикант на водной основе EasyGlide Cooling Lubricant (150 мл). Модель: easyglide-27520055. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EASY GLIDE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Графитовые чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер).  Графитовые чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st003-mlg. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: графитовый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3811,21 +4023,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>150 мл</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t>150 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -3851,7 +4063,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -3871,32 +4083,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>EASY GLIDE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cмазка на водной основе EasyGlide</t>
+          <t>Красные чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-24372-1299</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+          <t>id-21882-1299</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>99999</v>
@@ -3906,15 +4126,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21882/21882_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21882/21882_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">EasyGlide - это высококачественная смазка на водной основе, произведенная сертифицированным немецким производителем.Специальный состав легко смывается водой и не оставляет следов на теле и одежде.Благодаря приятной на ощупь консистенции, отличным смазывающим свойствам и оптимальному количеству, EasyGlide идеально подходит для полноценного и беззаботного секса.Смазка подходит для использования с латексными презервативами. Она протестирована дерматологами. Не имеет запаха и цвета. Флакон оснащён удобным дозатором. Cмазка на водной основе EasyGlide Lubricant (150 мл).  Cмазка на водной основе EasyGlide Lubricant (150 мл). Модель: easyglide-31873200. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EASY GLIDE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер).  Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st003-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3927,21 +4151,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
-          <t>150 мл</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t>150 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -3967,7 +4191,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -3987,38 +4211,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>EASY TOYS</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Красное виниловое покрывало Easy Toys</t>
+          <t>Черные чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-26990-1299</t>
+          <t>id-21878-1299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -4030,15 +4254,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21878/21878_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21878/21878_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21878/21878_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">С помощью этой красной простыни защитите свою кровать, пол и мебель от смазок, лубрикантов, гелей, массажного масла и других жидкостей. Простыня EasyToys на 100 % водонепроницаема и подходит для кроватей с размером до 230 см. Положите ее на кровать, чтобы защитить простыни и другое постельное белье, на пол или в любое другое место, которое вы хотите оставить в чистоте и порядке, несмотря на все влажное удовольствие, которым хотите насладиться сполна! Наслаждайтесь массажем тела без последующих хлопот, связанных с удалением масляных пятен. Красное виниловое покрывало Easy Toys.  Красное виниловое покрывало Easy Toys. Модель: easytoys-700r. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: ярко-красный. Материал: ПВХ. Батареек нет в комплекте. Бренд: EASY TOYS. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер).  Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер). Модель: passion-st003-xlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -4053,7 +4281,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>ПВХ</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -4091,7 +4319,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4111,38 +4339,38 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Кляпы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>EASY TOYS</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Кляп-ёлочка Easytoys Ball Gag With</t>
+          <t>Красные чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-24366-1299</t>
+          <t>id-21881-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -4154,15 +4382,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21881/21881_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21881/21881_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Будь под контролем или наслаждайся чувством власти, заставляя замолчать своего партнера с помощью этого кляпа!Идеально подходит как для новичков, так и для более опытных любителей бондажа. Ремешок полностью регулируется, поэтому кляп всегда будет плотно сидеть на голове.Ёлочка изготовлена из качественного плотного силикона, без отверстий для воздуха. Кляп не позволит издать даже писка. Кляп-ёлочка Easytoys Ball Gag With Silicone Beads.  Кляп-ёлочка Easytoys Ball Gag With Silicone Beads. Модель: easytoys-et273blk. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, эко кожа, металл. Батареек нет в комплекте. Бренд: EASY TOYS. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер).  Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер). Модель: passion-st003-xlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4177,7 +4409,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, эко кожа, металл</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -4215,7 +4447,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4235,32 +4467,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>EASY TOYS</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Страпон с изогнутым стимулятором</t>
+          <t>Черные чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-24365-1299</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+          <t>id-25401-1299</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>99999</v>
@@ -4270,15 +4510,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25401/25401_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25401/25401_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25401/25401_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам нравится, когда ваша партнерша надевает страпон? Дайте ей почувствовать власть, а сами насладитесь непередаваемым анальным или вагинальным удовольствием!Сам фаллос красивого чёрного цвета сделан из качественного силикона, не содержащего вредных примесей. Его размеры подойдую для любого вида секса. Вы не останетесь неудовлетворёнными. Трусики состоят из удобных ремешкой, которые просто регулируются. Их может носить любой, у кого максимальный обхват бедер составляет 110 см. Страпон можно использовать со смазками на водной основе. Страпон с изогнутым стимулятором Easytoys Harness with silicone dildo.  Страпон с изогнутым стимулятором Easytoys Harness with silicone dildo. Модель: easytoys-et554blk. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, нейлон. Батареек нет в комплекте. Бренд: EASY TOYS. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер).  Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st003mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4293,7 +4537,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, нейлон</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -4315,18 +4559,10 @@
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>2.4</v>
-      </c>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4339,7 +4575,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>страпон-трусики, стимулятор</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4359,32 +4595,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>EASY TOYS</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Рельефный страпон Silicone bended</t>
+          <t>Черные чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-24364-1299</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+          <t>id-25402-1299</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>99999</v>
@@ -4394,15 +4638,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25402/25402_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25402/25402_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25402/25402_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вам нравится, когда ваша партнерша надевает страпон? Дайте ей почувствовать власть, а сами насладитесь непередаваемым анальным или вагинальным удовольствием!Сам фаллос красивого чёрного цвета сделан из качественного силикона, не содержащего вредных примесей. Его размеры подойдую для любого вида секса. Вы не останетесь неудовлетворёнными. Рельефный ствол с чуть изогнутой головкой хорошо промассирует зону простаты или достанет до чувственной точки G.Трусики состоят из удобных ремешкой, которые просто регулируются. Их может носить любой, у кого максимальный обхват бедер составляет 110 см. Страпон можно использовать со смазками на водной основе. Рельефный страпон Silicone bended strap-on.  Рельефный страпон Silicone bended strap-on. Модель: easytoys-et555blk. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: черный. Материал: высококачественный силикон с бархатистой поверхностью, нейлон. Батареек нет в комплекте. Бренд: EASY TOYS. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 1.2 размер).  Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 1.2 размер). Модель: passion-st003smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Нидерланды</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4417,7 +4665,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>высококачественный силикон с бархатистой поверхностью, нейлон</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -4439,18 +4687,10 @@
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>2.6</v>
-      </c>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4463,7 +4703,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>страпон-трусики, рельефный стимулятор</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4483,32 +4723,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Светящийся в темноте сферический</t>
+          <t>Черные чулки с красным кружевом с</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-23586-1299</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+          <t>id-20183-1299</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>99999</v>
@@ -4518,15 +4766,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20183/20183_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оригинальный интимный аксессуар для увеличения полового члена. Изготовлен из мягкого пластичного материала, дарящего приятные тактильные ощущения.Экстендер светится в темноте зелёным неоновым светом. Для этого его необходимо некоторое время подержать у источника света.Способ применения: вынуть презерватив из упаковки, поместить в него изделие, надеть презерватив на половой член.До и после каждого использования рекомендуется обрабатывать изделие очищающим спреем с антимикробным эффектом или просто в теплой воде с жидким мылом. Светящийся в темноте сферический экстендер EGZO SOFT GLOW (вторая кожа).  Светящийся в темноте сферический экстендер EGZO SOFT GLOW (вторая кожа). Модель: egzo-5617. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Увеличение пениса &gt; Удлиняющие насадки, пенисы для ношения. Цвет: светится в темноте. Материал: Cyberskin (вторая кожа). Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Черные чулки с красным кружевом (с силиконом) 3.4.  Черные чулки с красным кружевом (с силиконом) 3.4. Модель: passion-st004-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4541,7 +4793,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Cyberskin (вторая кожа)</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -4565,12 +4817,8 @@
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="n">
-        <v>3.223</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>2.93</v>
-      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4603,32 +4851,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Классический лубрикант на силиконовой</t>
+          <t>Красные чулки с черным кружевом с</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-22343-1299</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+          <t>id-23435-1299</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>99999</v>
@@ -4638,15 +4894,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23435/23435_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Универсальный лубрикант на силиконовой основе от EGZO (U.K.) станет незаменимым в вашей постели. Его использование вызывает ощущение особой гладкости и мягкости, имеет продолжительное действие, не требует повторного нанесения, идеально подходит для анального секса и близости в воде.Силиконовый лубрикант совместим только с игрушками нейтральными к силикону!.Классический лубрикант на силиконовой основе EGZO 2 in 1 (50 мл).  Классический лубрикант на силиконовой основе EGZO 2 in 1 (50 мл). Модель: egzo-sl-wow50. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Красные чулки с черным кружевом (с силиконом) 3.4 (17 Den).  Красные чулки с черным кружевом (с силиконом) 3.4 (17 Den). Модель: passion-st004-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный, черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4659,21 +4919,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -4719,32 +4979,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Лубриканты</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Анальный лубрикант на силиконовой</t>
+          <t>Черные чулки с красным кружевом с</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-22342-1299</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+          <t>id-20182-1299</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>99999</v>
@@ -4754,15 +5022,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20182/20182_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Лубрикант для анального секса на силиконовой основе от EGZO (U.K.) станет незаменимым в вашей постели. Его использование вызывает ощущение особой гладкости и мягкости, имеет продолжительное действие, не требует повторного нанесения, идеально подходит для анального секса и близости в воде.Силиконовый лубрикант совместим только с игрушками нейтральными к силикону!.Анальный лубрикант на силиконовой основе EGZO 2 in 1 (50 мл).  Анальный лубрикант на силиконовой основе EGZO 2 in 1 (50 мл). Модель: egzo-sla-hey50. Косметика, препараты. Смазки, косметика &gt; Анальные смазки. Цвет: прозрачный. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Черные чулки с красным кружевом (с силиконом) 1.2.  Черные чулки с красным кружевом (с силиконом) 1.2. Модель: passion-st004-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4775,21 +5047,21 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -4835,38 +5107,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Страпон EGZO Evolution с реалистичным</t>
+          <t>Черные чулки с красным кружевом с</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-23384-1299</t>
+          <t>id-20181-1299</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -4878,30 +5150,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20181/20181_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Страпон Harness со съемным фаллосом-насадкой EGZO из нежного материала, имитирующего кожу человека, на регулируемых ремнях и комплектом сменных колец. Вы сможете вставлять любые фаллосы и стимуляторы на присоске, создавая новые варианты страпона. Страпон EGZO Evolution с реалистичным фаллосом (18,5 см).  Страпон EGZO Evolution с реалистичным фаллосом (18,5 см). Модель: egzo-str001. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: телесный с черным. Материал: нежный TPE (имитация кожи человека), эко кожа, нейлон. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Черные чулки с красным кружевом (с силиконом) 5.  Черные чулки с красным кружевом (с силиконом) 5. Модель: passion-st004-xxlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный с красным. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>нежный TPE (имитация кожи человека), эко кожа, нейлон</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -4939,7 +5215,7 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>фаллос на присоске, страпон-трусики, два сменных кольца разного диаметра, мешочек для хранения</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -4959,28 +5235,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Страпон EGZO Evolution с реалистичным</t>
+          <t>Белые чулочки с полосатой резинкой на</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-22338-1299</t>
+          <t>id-21876-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -5002,30 +5278,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21876/21876_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Страпон Harness со съемным фаллосом-насадкой EGZO из нежного материала, имитирующего кожу человека, на регулируемых ремнях и комплектом сменных колец. Вы сможете вставлять любые фаллосы и стимуляторы на присоске, создавая новые варианты страпона. Страпон EGZO Evolution с реалистичным фаллосом.  Страпон EGZO Evolution с реалистичным фаллосом. Модель: egzo-str002. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: теленый с черным. Материал: нежный TPE (имитация кожи человека), эко кожа, нейлон. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Нежные тонкие чулки с полосатой резинкой на силиконовой основе. Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 3.4 размер).  Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st005-mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>нежный TPE (имитация кожи человека), эко кожа, нейлон</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -5063,7 +5343,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>фаллос на присоске, страпон-трусики, два сменных кольца разного диаметра, мешочек для хранения</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5083,38 +5363,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Страпон EGZO Evolution с реалистичным</t>
+          <t>Белые чулочки с полосатой резинкой на</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-22337-1299</t>
+          <t>id-21875-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -5126,30 +5406,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21875/21875_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Страпон Harness со съемным фаллосом-насадкой EGZO из нежного материала, имитирующего кожу человека, на регулируемых ремнях и комплектом сменных колец. Вы сможете вставлять любые фаллосы и стимуляторы на присоске, создавая новые варианты страпона. Страпон EGZO Evolution с реалистичным фаллосом.  Страпон EGZO Evolution с реалистичным фаллосом. Модель: egzo-str003. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: теленый с черным. Материал: нежный TPE (имитация кожи человека), эко кожа, нейлон. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Нежные тонкие чулки с полосатой резинкой на силиконовой основе. Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 1.2 размер).  Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 1.2 размер). Модель: passion-st005-smw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>нежный TPE (имитация кожи человека), эко кожа, нейлон</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -5187,7 +5471,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>фаллос на присоске, страпон-трусики, два сменных кольца разного диаметра, мешочек для хранения</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5207,38 +5491,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Страпон EGZO Evolution с реалистичным</t>
+          <t>Белые чулочки с полосатой резинкой на</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-23383-1299</t>
+          <t>id-21877-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -5250,15 +5534,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21877/21877_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Страпон Harness со съемным фаллосом-насадкой EGZO из нежного материала, имитирующего кожу человека, на регулируемых ремнях и комплектом сменных колец. Вы сможете вставлять любые фаллосы и стимуляторы на присоске, создавая новые варианты страпона. Страпон EGZO Evolution с реалистичным фаллосом (16 см).  Страпон EGZO Evolution с реалистичным фаллосом (16 см). Модель: egzo-str005. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: телесный с черным. Материал: нежный TPE (имитация кожи человека), эко кожа, нейлон. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Нежные тонкие чулки с полосатой резинкой на силиконовой основе. Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 5 размер).  Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 5 размер). Модель: passion-st005-xlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5273,7 +5561,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>нежный TPE (имитация кожи человека), эко кожа, нейлон</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -5311,7 +5599,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>фаллос на присоске, страпон-трусики, два сменных кольца разного диаметра, мешочек для хранения</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5331,38 +5619,38 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>EGZO</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Страпон EGZO Evolution с реалистичным</t>
+          <t>Красные чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-22336-1299</t>
+          <t>id-20195-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -5374,30 +5662,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20195/20195_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20195/20195_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Страпон Harness со съемным фаллосом-насадкой EGZO из нежного материала, имитирующего кожу человека, на регулируемых ремнях и комплектом сменных колец. Вы сможете вставлять любые фаллосы и стимуляторы на присоске, создавая новые варианты страпона. Страпон EGZO Evolution с реалистичным фаллосом.  Страпон EGZO Evolution с реалистичным фаллосом. Модель: egzo-str006. Секс-игрушки. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Трусики и насадки. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: теленый с черным. Материал: нежный TPE (имитация кожи человека), эко кожа, нейлон. Батареек нет в комплекте. Бренд: EGZO. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Красные чулки в мелкую сеточку (с силиконом) 3.4.  Красные чулки в мелкую сеточку (с силиконом) 3.4. Модель: passion-st020-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Англия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>нежный TPE (имитация кожи человека), эко кожа, нейлон</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5435,7 +5727,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>фаллос на присоске, страпон-трусики, два сменных кольца разного диаметра, мешочек для хранения</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5455,32 +5747,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ЭКСМО</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Книга Новая Камасутра: самая полная</t>
+          <t>Белые чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-10271-1299</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+          <t>id-20190-1299</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>99999</v>
@@ -5490,28 +5790,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20190/20190_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20190/20190_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Книга Новая Камасутра: самая полная версия.  Книга Новая Камасутра: самая полная версия. Модель: eks-060927. Печатная продукция. Эротические сувениры &gt; Печатная продукция. Цвет: золотой. Батареек нет в комплекте. Бренд: ЭКСМО. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Белые чулки в мелкую сеточку (с силиконом) 3.4.  Белые чулки в мелкую сеточку (с силиконом) 3.4. Модель: passion-st020-mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
@@ -5567,32 +5875,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ЭКСМО</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Книга Камасутра  De Luxe</t>
+          <t>Черные чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-8228-1299</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+          <t>id-20196-1299</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>99999</v>
@@ -5602,15 +5918,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20196/20196_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20196/20196_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Книга Камасутра  De Luxe.  Книга Камасутра  De Luxe. Модель: eks-086284. Печатная продукция. Эротические сувениры &gt; Печатная продукция. Батареек нет в комплекте. Бренд: ЭКСМО. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Черные чулки в мелкую сеточку (с силиконом) 1.2.  Черные чулки в мелкую сеточку (с силиконом) 1.2. Модель: passion-st020-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5623,7 +5943,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
@@ -5679,32 +6003,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ЭКСМО</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Книга Playboy. Блондинки</t>
+          <t>Белые чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-8219-1299</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+          <t>id-20192-1299</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>99999</v>
@@ -5714,15 +6046,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20192/20192_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20192/20192_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Книга Playboy. Блондинки.  Книга Playboy. Блондинки. Модель: eks-132678. Печатная продукция. Эротические сувениры &gt; Печатная продукция. Батареек нет в комплекте. Бренд: ЭКСМО. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Белые чулки в мелкую сеточку (с силиконом) 1.2.  Белые чулки в мелкую сеточку (с силиконом) 1.2. Модель: passion-st020-smw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5735,7 +6071,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
@@ -5791,32 +6131,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ЭКСМО</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Книга О чем не говорят мужчины</t>
+          <t>Черные чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-15497-1299</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+          <t>id-20198-1299</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>99999</v>
@@ -5826,28 +6174,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20198/20198_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20198/20198_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Книга О чем не говорят мужчины.  Книга О чем не говорят мужчины. Модель: eks-6107. Печатная продукция. Эротические сувениры &gt; Печатная продукция. Батареек нет в комплекте. Бренд: ЭКСМО. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Черные чулки в мелкую сеточку (с силиконом) 5.  Черные чулки в мелкую сеточку (с силиконом) 5. Модель: passion-st020-xxlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
@@ -5903,13 +6259,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Сувениры эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ЭКСМО</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5919,16 +6275,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Книга Оральный секс. Секреты взрывных</t>
+          <t>Телесные чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-15489-1299</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+          <t>id-23092-1299</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>99999</v>
@@ -5938,28 +6302,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23092/23092_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Книга Оральный секс. Секреты взрывных ощущений.  Книга Оральный секс. Секреты взрывных ощущений. Модель: eks-8162. Печатная продукция. Эротические сувениры &gt; Печатная продукция. Батареек нет в комплекте. Бренд: ЭКСМО. </t>
+          <t xml:space="preserve">Чулочки в мелкую сетку с кружевным верхом, с силиконом. Ширина кружева 9 см. Телесные чулки в мелкую сеточку (с силиконом) 5.  Телесные чулки в мелкую сеточку (с силиконом) 5. Модель: passion-st020-xxlbg. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: телесный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
@@ -6015,13 +6387,13 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ELAWIN</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -6031,22 +6403,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Эротическая комбинация с бахромой</t>
+          <t>Красные чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-27253-1299</t>
+          <t>id-20194-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -6058,15 +6430,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20194/20194_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20194/20194_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Желание и страсть - это именно те эмоции, которые испытает Ваш мужчина, увидев Вас в изысканной комбинации от Elawin. Тонкая бахрома лишь слегка прикрывает Ваше тело пробуждая фантазию, пайетки добавляют изысканности и шарма, а за хорошую посадку отвечают регулируемые бретели, перекрещивающиеся на спине. Комбинация дополнена миниатюрными трусиками-стрингами. Эротическая комбинация с бахромой ELAWIN L.  Эротическая комбинация с бахромой ELAWIN L. Модель: elawin-50654lb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 87% полиэстер, 13% эластан. Батареек нет в комплекте. Бренд: ELAWIN. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Красные чулки в мелкую сеточку (с силиконом) 5.  Красные чулки в мелкую сеточку (с силиконом) 5. Модель: passion-st020-xxlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Турция</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6081,7 +6457,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>87% полиэстер, 13% эластан</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -6119,7 +6495,7 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>комбинация, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6139,13 +6515,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ELECTRIC LINGERIE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -6155,22 +6531,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Малиновый комплект с кружевом</t>
+          <t>Черные чулки в крупную сетку с</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-14449-1299</t>
+          <t>id-20188-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -6182,15 +6558,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20188/20188_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20188/20188_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Малиновый комплект с кружевом.  Малиновый комплект с кружевом. Модель: electric-401slp. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: розовый. Батареек нет в комплекте. Бренд: ELECTRIC LINGERIE. </t>
+          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Черные чулки в крупную сетку (с силиконом) 5.  Черные чулки в крупную сетку (с силиконом) 5. Модель: passion-st021-5xxlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6203,7 +6583,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
         <is>
@@ -6239,7 +6623,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>лиф, стринги, юбочка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -6259,13 +6643,13 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ELECTRIC LINGERIE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -6275,22 +6659,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Малые красные крылья из перьев</t>
+          <t>Черные чулки в крупную сетку с</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-9068-1299</t>
+          <t>id-20189-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -6302,15 +6686,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20189/20189_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20189/20189_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Малые красные крылья из перьев.  Малые красные крылья из перьев. Модель: electric-l-wa-red. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: красный. Материал: перья. Батареек нет в комплекте. Бренд: ELECTRIC LINGERIE. </t>
+          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Черные чулки в крупную сетку (с силиконом) 3.4.  Черные чулки в крупную сетку (с силиконом) 3.4. Модель: passion-st021-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6325,7 +6713,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>перья</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -6383,13 +6771,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ELECTRIC LINGERIE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -6399,22 +6787,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Большие красные крылья</t>
+          <t>Черные чулки в крупную сетку с</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-21073-1299</t>
+          <t>id-20187-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>58-60</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -6426,15 +6814,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20187/20187_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20187/20187_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Большие красные крылья.  Большие красные крылья. Модель: electric-l-wb-red. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: красный. Материал: перья. Батареек нет в комплекте. Бренд: ELECTRIC LINGERIE. </t>
+          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Черные чулки в крупную сетку (с силиконом) 1.2.  Черные чулки в крупную сетку (с силиконом) 1.2. Модель: passion-st021-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -6449,7 +6841,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>перья</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -6507,13 +6899,13 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ELECTRIC LINGERIE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -6523,22 +6915,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Большие белые крылья</t>
+          <t>Красные чулки в крупную сетку с</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-21072-1299</t>
+          <t>id-20186-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>4XL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>58-60</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -6550,15 +6942,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20186/20186_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20186/20186_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Большие белые крылья.  Большие белые крылья. Модель: electric-l-wb-wht. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: белый. Материал: перья. Батареек нет в комплекте. Бренд: ELECTRIC LINGERIE. </t>
+          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Красные чулки в крупную сетку (с силиконом) 1.2.  Красные чулки в крупную сетку (с силиконом) 1.2. Модель: passion-st021-smr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6573,7 +6969,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>перья</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -6631,32 +7027,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Аксессуары для игрушек эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ENERGIZER</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Набор из 4-х батареек Energizer тип</t>
+          <t>Черные колготки в крупную сеточку 1;2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-20532-1299</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+          <t>id-23425-1299</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>99999</v>
@@ -6666,15 +7070,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23425/23425_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Набор из 4-х батареек Energizer (тип AAA).  Набор из 4-х батареек Energizer (тип AAA). Модель: energizer-max4AAA. Батарейки. Батарейки &gt; AAA, 1,5 V (мизинчиковые). Батареек нет в комплекте. Бренд: ENERGIZER. </t>
+          <t xml:space="preserve">Женственные колготки в сеточку черного цвета. Черные колготки в крупную сеточку 1.2.  Черные колготки в крупную сеточку 1.2. Модель: passion-ti016-1/2b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -6687,7 +7095,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>82% полиамид, 18% эластан</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
@@ -6723,7 +7135,7 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>4 батарейки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -6743,32 +7155,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Аксессуары для игрушек эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ENERGIZER</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Набор из 6 батареек ENERGIZER MAX</t>
+          <t>Черные колготки в крупную сеточку 3;4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-18755-1299</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+          <t>id-23426-1299</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>99999</v>
@@ -6778,28 +7198,36 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23426/23426_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Набор из 6 батареек ENERGIZER MAX POWERSEAL  (тип AA).  Набор из 6 батареек ENERGIZER MAX POWERSEAL  (тип AA). Модель: energizer-maxpower6. Батарейки. Батарейки &gt; AA, 1,5 V (пальчиковые). Батареек нет в комплекте. Бренд: ENERGIZER. </t>
+          <t xml:space="preserve">Женственные колготки в сеточку черного цвета. Черные колготки в крупную сеточку 3.4.  Черные колготки в крупную сеточку 3.4. Модель: passion-ti016-3/4b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Тайланд</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>82% полиамид, 18% эластан</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
@@ -6835,7 +7263,7 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>6 батареек в упаковке</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -6855,32 +7283,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ENJOY TOYS</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Мастурбатор с контролем вакуума и</t>
+          <t>Черные колготки в фигурную сеточку 1;2</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-20439-1299</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+          <t>id-23427-1299</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>99999</v>
@@ -6890,15 +7326,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23427/23427_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enjoy Cup - новое поколение мастурбаторов из нежнейшего эластомера и с полным контролем ощущений!Mattari Soft - это бархатная ребристая поверхность, ласкающая кожу со всех сторон. Игрушка подойдет тем, кто предпочитает легкие прикосновения и продолжительные прелюдии.В вашем распоряжении - три варианта интенсивности стимуляции благодаря системе контроля вакуума. Закрывайте или открывайте отверстия по бокам корпуса - и меняйте прикосновения от нежных до жестких по своему вкусу!1. Все отверстия открыты - нежные прикосновения для долгой прелюдии2. Одно отверстие закрыто - уверенный, но мягкий обхват пениса3. Оба отверстия закрыты - плотный обхват и максимально интенсивная стимуляция.Также традиционно японские мастурбаторы идут сразу с лубрикантом внутри для максимально удобного использования.После использования игрушку достаточно промыть проточной водой. Мастурбатор с контролем вакуума и бархатистым рельефом Enjoy Toys MATTARI SOFT.  Мастурбатор с контролем вакуума и бархатистым рельефом Enjoy Toys MATTARI SOFT. Модель: enjoyt-048. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: белый. Материал: TPE, пластик. Батареек нет в комплекте. Бренд: ENJOY TOYS. </t>
+          <t xml:space="preserve">Колготки черного цвета с плетением елочкой. Черные колготки в фигурную сеточку 1.2.  Черные колготки в фигурную сеточку 1.2. Модель: passion-ti017-1/2b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Япония</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -6913,7 +7353,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>TPE, пластик</t>
+          <t>82% полиамид, 18% эластан</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -6928,21 +7368,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W54" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X54" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>15</v>
-      </c>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
@@ -6961,7 +7391,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>мастурбатор, пробник смазки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -6981,28 +7411,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ENJOY TOYS</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>для мужчин</t>
-        </is>
-      </c>
+          <t>PASSION</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Мастурбатор с контролем вакуума и</t>
+          <t>Черные колготки в фигурную сеточку 3;4</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-20438-1299</t>
+          <t>id-23428-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -7016,30 +7442,22 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23428/23428_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Мастурбатор с контролем вакуума и крупными ребрами Enjoy Toys TSUNDERE HARD.  Мастурбатор с контролем вакуума и крупными ребрами Enjoy Toys TSUNDERE HARD. Модель: enjoyt-052. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Мастурбаторы и вагины &gt; Мастурбаторы Men`s Max. Цвет: белый. Материал: TPE, пластик. Батареек нет в комплекте. Бренд: ENJOY TOYS. </t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Япония</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Колготки черного цвета с плетением елочкой. Черные колготки в фигурную сеточку 3.4.  Черные колготки в фигурную сеточку 3.4. Модель: passion-ti017-3/4b.  Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>TPE, пластик</t>
+          <t>82% полиамид, 18% эластан</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -7054,12 +7472,8 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W55" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X55" t="n">
-        <v>6.82</v>
-      </c>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
@@ -7081,7 +7495,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>Мастурбатор, пробник смазки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -7101,38 +7515,38 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ENVY MENS WEAR</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Трусы G-стринги в полоску ML</t>
+          <t>Колготки с имитацией гольфин на поясе с</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-15433-1299</t>
+          <t>id-23088-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -7144,15 +7558,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23088/23088_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Трусы G-стринги в полоску ML.  Трусы G-стринги в полоску ML. Модель: envy-e021mlwb. Белье. Эротическое белье для мужчин &gt; Трусы, стринги, шорты. Цвет: черный, белый. Материал: 95% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: ENVY MENS WEAR. </t>
+          <t xml:space="preserve">Женские однотонные колготки с рисунком, имитирующим гольфины с поддержкой тонких пажей и кокетливыми бантиками. Колготки с имитацией гольфин на поясе с бантиком М (20.40 den).  Колготки с имитацией гольфин на поясе с бантиком М (20.40 den). Модель: passion-ti034-3b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93% полиамид, 7% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -7167,7 +7585,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>95% нейлон, 5% спандекс</t>
+          <t>93% полиамид, 7% эластан</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -7225,38 +7643,38 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ENVY MENS WEAR</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Черные трусы в полосочку ML</t>
+          <t>Колготки с имитацией гольфин на поясе с</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-15422-1299</t>
+          <t>id-23089-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -7268,15 +7686,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23089/23089_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черные трусы в полосочку ML.  Черные трусы в полосочку ML. Модель: envy-e022mlbw. Белье. Эротическое белье для мужчин &gt; Трусы, стринги, шорты. Цвет: черный, белый. Материал: 95% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: ENVY MENS WEAR. </t>
+          <t xml:space="preserve">Женские однотонные колготки с рисунком, имитирующим гольфины с поддержкой тонких пажей и кокетливыми бантиками. Колготки с имитацией гольфин на поясе с бантиком L (20.40 den).  Колготки с имитацией гольфин на поясе с бантиком L (20.40 den). Модель: passion-ti034-4b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93% полиамид, 7% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -7291,7 +7713,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>95% нейлон, 5% спандекс</t>
+          <t>93% полиамид, 7% эластан</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -7349,40 +7771,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ENVY MENS WEAR</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Трусы-боксеры в полоску SM</t>
+          <t>Вагинальные шарики Shanghai</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-15438-1299</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>48-50</t>
-        </is>
-      </c>
+          <t>id-4017-1299</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>99999</v>
@@ -7392,10 +7806,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4017/4017_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4017/4017_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Трусы-боксеры в полоску SM.  Трусы-боксеры в полоску SM. Модель: envy-e023smbw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный, белый. Материал: 95% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: ENVY MENS WEAR. </t>
+          <t xml:space="preserve">.Вагинальные шарики Shanghai.  Вагинальные шарики Shanghai. Модель: penth-p9230-7. Секс-игрушки. Шарики &gt; Стеклянные, металлические. Цвет: серебристый. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7415,7 +7833,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>95% нейлон, 5% спандекс</t>
+          <t>металл</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -7439,8 +7857,12 @@
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
+      <c r="AF58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>2</v>
+      </c>
       <c r="AH58" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7453,7 +7875,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2 шарика, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -7473,38 +7895,38 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ENVY MENS WEAR</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Трусы-боксеры серые ML</t>
+          <t>Кожаная маска на глаза с</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-15468-1299</t>
+          <t>id-12062-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -7516,30 +7938,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12062/12062_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Трусы-боксеры серые ML.  Трусы-боксеры серые ML. Модель: envy-e028mlsil. Белье. Эротическое белье для мужчин &gt; Трусы, стринги, шорты. Цвет: серый с серебристым. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: ENVY MENS WEAR. </t>
+          <t xml:space="preserve">.Кожаная маска на глаза с отстегивающимися шорами.  Кожаная маска на глаза с отстегивающимися шорами. Модель: penthouse-3025. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: красный. Материал: кожа. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>кожа</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -7597,13 +8023,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Комплекты БДСМ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ERASEXA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -7613,29 +8039,41 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Гигантский дилдо ручной работы Мистер</t>
+          <t>Игольчатое колёсико Вартенберга для</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-19534-1299</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+          <t>id-12059-1299</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>99999</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>упаковка - полиэтиленовый пакет (без бумажной коробки)</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12059/12059_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Гигантский дилдо ручной работы Мистер Большой.  Гигантский дилдо ручной работы Мистер Большой. Модель: erasexa-zoo14. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Гиганты и фистинг. Цвет: темно-серый. силиконБренд: ERASEXA. </t>
+          <t xml:space="preserve">.Игольчатое колёсико Вартенберга для острых ощущений.  Игольчатое колёсико Вартенберга для острых ощущений. Модель: penthouse-3060. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Цвет: серебряный с черным. Материал: металл, пластик. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7645,15 +8083,19 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>металл, пластик</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
@@ -7668,15 +8110,9 @@
       </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>45</v>
-      </c>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
@@ -7695,7 +8131,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина рабочая до мошонки 36 см, диаметр 9,5 см</t>
+          <t>колесико, бархатный мешочек для хранения</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -7715,13 +8151,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ERASEXA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -7731,16 +8167,24 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Половой член волка</t>
+          <t>Кожаный фиксатор для груди и предплечья</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-17448-1299</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
+          <t>id-15128-1299</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>99999</v>
@@ -7750,15 +8194,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15128/15128_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Половой член волка.  Половой член волка. Модель: erasexa-zoo16. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Половые члены животных. Цвет: серый с белым. Материал: силикон. Батареек нет в комплекте. Бренд: ERASEXA. </t>
+          <t xml:space="preserve">.Кожаный фиксатор для груди и предплечья.  Кожаный фиксатор для груди и предплечья. Модель: penthouse-3065. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный с серебряным. Материал: искусственная кожа. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -7773,7 +8221,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>силикон</t>
+          <t>искусственная кожа</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -7790,25 +8238,15 @@
       </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>5.5</v>
-      </c>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7821,7 +8259,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>упаковка - полиэтиленовая пленка (без бумажной коробки)</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -7841,32 +8279,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ERASEXA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Половой член жеребца породы Коди</t>
+          <t>Фиксатор для рук и ног с металличсекой</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-17451-1299</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+          <t>id-14555-1299</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>99999</v>
@@ -7876,30 +8322,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14555/14555_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Половой член жеребца породы Коди (большой).  Половой член жеребца породы Коди (большой). Модель: erasexa-zoo19. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Половые члены животных. Цвет: серый с телесным. Материал: силикон. Батареек нет в комплекте. Бренд: ERASEXA. </t>
+          <t xml:space="preserve">.Фиксатор для рук и ног с металличсекой пластиной.  Фиксатор для рук и ног с металличсекой пластиной. Модель: penthouse-3089. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. БДСМ товары и фетиш &gt; Наборы. Цвет: черный. Материал: металл, неопрен, нейлон. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>силикон</t>
+          <t>металл, неопрен, нейлон</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -7916,29 +8366,15 @@
       </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="n">
-        <v>28.05</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="AA62" t="n">
-        <v>25.5</v>
-      </c>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>23.65</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>5.775</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>5.25</v>
-      </c>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
       <c r="AH62" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7951,7 +8387,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>упаковка - полиэтиленовая пленка (без бумажной коробки)</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -7971,28 +8407,28 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ERASEXA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Половой член жеребца породы Коди</t>
+          <t>Красные оковы на ноги с металлической</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-17450-1299</t>
+          <t>id-15080-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -8006,15 +8442,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15080/15080_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Половой член жеребца породы Коди (маленький).  Половой член жеребца породы Коди (маленький). Модель: erasexa-zoo54. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Половые члены животных. Цвет: телесный. Материал: силикон. Батареек нет в комплекте. Бренд: ERASEXA. </t>
+          <t xml:space="preserve">.Красные оковы на ноги с металлической распоркой.  Красные оковы на ноги с металлической распоркой. Модель: penthouse-3094r. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. Цвет: красный с серебряным . Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -8029,7 +8469,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>силикон</t>
+          <t>искусственная кожа, металл</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -8046,29 +8486,15 @@
       </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>19</v>
-      </c>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>4.125</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>3.75</v>
-      </c>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
       <c r="AH63" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8081,7 +8507,7 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>упаковка - полиэтиленовая пленка (без бумажной коробки)</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8101,28 +8527,28 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ERASEXA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Половой член дога</t>
+          <t>Ошейник с замочком  и металлическими</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-17449-1299</t>
+          <t>id-15069-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr"/>
@@ -8136,15 +8562,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/15069/15069_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Половой член дога.  Половой член дога. Модель: erasexa-zoo60. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Половые члены животных. Цвет: розовый, белый с серым. Материал: силикон. Батареек нет в комплекте. Бренд: ERASEXA. </t>
+          <t xml:space="preserve">.Ошейник с замочком  и металлическими заклепками Penthouse.  Ошейник с замочком  и металлическими заклепками Penthouse. Модель: penthouse-3156. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный с серебряным . Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -8159,7 +8589,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>силикон</t>
+          <t>искусственная кожа, металл</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -8176,29 +8606,15 @@
       </c>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>22</v>
-      </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>21.45</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>6.8</v>
-      </c>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8211,7 +8627,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>упаковка - полиэтиленовая пленка (без бумажной коробки)</t>
+          <t>ошейник, подвесной замочек, 2 ключа</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8231,32 +8647,40 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ERASEXA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Член мустанга коричневый</t>
+          <t>Маска на подкладке Зоркий леопард</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-17452-1299</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+          <t>id-19634-1299</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>99999</v>
@@ -8266,15 +8690,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19634/19634_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Член мустанга коричневый.  Член мустанга коричневый. Модель: erasexa-zoo6. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Гиганты. Вибраторы и фаллоимитаторы &gt; Половые члены животных. Цвет: коричневый с розовым. Материал: силикон. Батареек нет в комплекте. Бренд: ERASEXA. </t>
+          <t xml:space="preserve">.Маска на подкладке Зоркий леопард.  Маска на подкладке Зоркий леопард. Модель: penthouse-3183. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный с леопардовым. Материал: искусственный мех, ткань(подкладка), резина. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -8289,7 +8717,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>силикон</t>
+          <t>искусственный мех, ткань(подкладка), резина</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -8306,29 +8734,15 @@
       </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>43</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>43</v>
-      </c>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
       <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="n">
-        <v>39</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>5.9</v>
-      </c>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
       <c r="AH65" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -8341,7 +8755,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>упаковка - полиэтиленовая пленка (без бумажной коробки)</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -8361,32 +8775,40 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Аксессуары для игрушек эротик</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ERGOLUX</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Набор из 4-х батареек ERGOLUX Alkaline </t>
+          <t>Зажимы для сосков и клитора Penthouse</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-18767-1299</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+          <t>id-20551-1299</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>99999</v>
@@ -8396,15 +8818,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20551/20551_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20551/20551_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20551/20551_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Набор из 4-х батареек ERGOLUX Alkaline  (тип AAA).  Набор из 4-х батареек ERGOLUX Alkaline  (тип AAA). Модель: ergolux-alkaine4AAA. Батарейки. Батарейки &gt; AAA, 1,5 V (мизинчиковые). Батареек нет в комплекте. Бренд: ERGOLUX. </t>
+          <t xml:space="preserve">.Зажимы для сосков и клитора Penthouse.  Зажимы для сосков и клитора Penthouse. Модель: penthouse-3286m. БДСМ. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: черный, золотой, серебряный. Материал: металл, пластик, ПВХ. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -8417,7 +8843,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>металл, пластик, ПВХ</t>
+        </is>
+      </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
@@ -8453,7 +8883,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>4 батарейки в наборе</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8473,75 +8903,67 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>Wisteria</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Эластичный стрэп с перекрещиванием над</t>
+          <t xml:space="preserve">Розовый пеньюар Penthouse Sweet </t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-23806-1299</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-25861-1299</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>99999</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr"/>
+          <t>пеньюар, стринги</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25861/25861_25861_650.jpg</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп TibbyТоп из широких эластичных лент, которые создают множество переплетений на груди. Такой топ украсит ваш повседневный образ. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп с перекрещиванием над грудью H.E.L. Nelli.  Эластичный стрэп с перекрещиванием над грудью H.E.L. Nelli. Модель: erolanta-470503slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Пеньюар в мелкую сетку с оригинальным ажурным лифом. В комплект входят трусики (стринги). Розовый пеньюар Penthouse Sweet &amp; spic L.XL.  Розовый пеньюар Penthouse Sweet . Модель: penthouse-4004303lxlp. США-Китай.  spic L/XL. Цвет: для женщин. 73% полиэстер, 27% эластанРетейлер: Wisteria. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Секс-игрушки</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
-        </is>
-      </c>
+          <t>Секс-игрушки</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
@@ -8577,7 +8999,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -8597,13 +9019,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Пояса эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -8613,22 +9035,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Пояс для чулок из эластичных лент</t>
+          <t>Красный пеньюар с трусиками Penthouse</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-23788-1299</t>
+          <t>id-26699-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -8640,30 +9062,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26699/26699_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26699/26699_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26699/26699_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Тонкие двойные ленты на поясе подчеркивают талию. Две ленты с застёжкой для закрепления чулок. Идеальный аксессуар для соблазнения. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Пояс для чулок из эластичных лент H.E.L. Billie.  Пояс для чулок из эластичных лент H.E.L. Billie. Модель: erolanta-470505slb. Белье. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Соблазнительный пеньюар с откровенным вырезом на груди. В комплект входят трусики (стринги). Красный пеньюар с трусиками Penthouse Libido boost SM.  Красный пеньюар с трусиками Penthouse Libido boost SM. Модель: penthouse-4004464smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -8701,7 +9127,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -8721,13 +9147,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -8737,22 +9163,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Красные трусики-стрэпы H.E.L. Trixi SL</t>
+          <t>Контактное ажурное боди с вырезами на</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-23778-1299</t>
+          <t>id-26689-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -8764,30 +9190,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26689/26689_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26689/26689_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26689/26689_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичные ленты благородного красного цвета закреплены на кольце впереди. Идеальный аксессуар для соблазнения.Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!.Красные трусики-стрэпы H.E.L. Trixi SL.  Красные трусики-стрэпы H.E.L. Trixi SL. Модель: erolanta-470508slr. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: благородный красный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Сексуальный боди с двумя вырезами на груди. Дизайн выполнен в виде мелкой сетки, дополненной контрастным ажурными вставками, подчеркивающими изгибы тела. Контактное ажурное боди с вырезами на груди Penthouse Turned on SM.  Контактное ажурное боди с вырезами на груди Penthouse Turned on SM. Модель: penthouse-4004792smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -8825,7 +9255,7 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -8845,13 +9275,13 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -8861,22 +9291,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Эластичный стрэп с перекрещиванием над</t>
+          <t>Контактное ажурное боди с вырезами на</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-23805-1299</t>
+          <t>id-26690-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -8888,30 +9318,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26690/26690_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26690/26690_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26690/26690_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Открытая грудь в обрамлении широких и тонких эластичных лент. Подчеркнет ваши формы и добавит образу пикантности. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!Стрэп NelliСтрэп - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!.Эластичный стрэп с перекрещиванием над грудью H.E.L. Nelli.  Эластичный стрэп с перекрещиванием над грудью H.E.L. Nelli. Модель: erolanta-470511slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Сексуальный боди с двумя вырезами на груди. Дизайн выполнен в виде мелкой сетки, дополненной контрастным ажурными вставками, подчеркивающими изгибы тела. Контактное ажурное боди с вырезами на груди Penthouse Turned on ML.  Контактное ажурное боди с вырезами на груди Penthouse Turned on ML. Модель: penthouse-4004808mlb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -8949,7 +9383,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -8969,13 +9403,13 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Стрэпы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -8985,12 +9419,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Эластичный стрэп H.E.L. Hloe</t>
+          <t>Комбинезон с открытыми плечами и</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-23780-1299</t>
+          <t>id-25923-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -9012,15 +9446,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25923/25923_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25923/25923_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25923/25923_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп HloeПростые и четкие линии из тонких лент подчеркивают зону декольте. Стрэп игриво подчеркивает формы, создавая сексуальные акценты. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Эластичный стрэп H.E.L. Hloe.  Эластичный стрэп H.E.L. Hloe. Модель: erolanta-470522slb. Белье. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Кетсьют (боди-комбинезон) в мелкую сетку с оригинальным рисунком, подчеркивающим достоинства фигуры и скрывающим ее недостатки. Комбинезон с открытыми плечами и имитацией чулок Penthouse Top-notch SL.  Комбинезон с открытыми плечами и имитацией чулок Penthouse Top-notch SL. Модель: penthouse-4005201slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -9035,7 +9473,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+          <t>88% нейлон, 12% эластан</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -9073,7 +9511,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9093,13 +9531,13 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -9109,22 +9547,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Черный эластичный стреп H.E.L. Kortni</t>
+          <t>Контактный комбинезон с фантазийным</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-23808-1299</t>
+          <t>id-26653-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -9136,30 +9574,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26653/26653_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26653/26653_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26653/26653_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стрэпы - уникальный аксессуар, способный добавить сексуальных акцентов не только в эротическом, но и в повседневном образе!Стрэп KortniИзящный стрэп из тонких лент на кольцах подчеркивает грудь и талию. Яркий аксессуар, который добавит образу пикантности. Благодаря регулируемым ремешкам - идеальная посадка по фигуре гарантирована!.Черный эластичный стреп H.E.L. Kortni.  Черный эластичный стреп H.E.L. Kortni. Модель: erolanta-470523slb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Аксессуары, украшения для тела &gt; Портупеи, стрэпы. Цвет: черный. Материал: 85% полиэстер, 10% искусственный шелк, 5% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Кетсьют (боди-комбинезон) в мелкую сетку с оригинальным рисунком, подчеркивающим достоинства фигуры и скрывающим ее недостатки. В самом интересном месте имеется разрез для страстной ночи-любви. Стринги в комплект не входят. Контактный комбинезон с фантазийным узором Penthouse Dirty mind XL.  Контактный комбинезон с фантазийным узором Penthouse Dirty mind XL. Модель: penthouse-4005256xlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>85% полиэстер, 10% искусственный шелк, 5% эластан</t>
+          <t>88% нейлон, 12% эластан</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -9197,7 +9639,7 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -9217,13 +9659,13 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -9233,22 +9675,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Туфли черные с заклепками 39 SALE -</t>
+          <t>Черный кружевной комплект Penthouse</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-6648-1299</t>
+          <t>id-26692-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -9257,18 +9699,22 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> высота каблука 14 см</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26692/26692_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26692/26692_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26692/26692_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Туфли черные с заклепками 39 (SALE - 50%).  Туфли черные с заклепками 39 (SALE - 50%). Модель: erolanta-60515-39b. Белье. Страпоны и фаллопротезы. Эротическое белье для женщин &gt; Обувь. Цвет: черный. Материал: 1 2 3. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Комплект эротического белья, состоящий из ажурного бюстгальтера без косточек и трусиков (стринг). Бретельки лифа регулируются по объему. Черный кружевной комплект Penthouse Double spice LXL.  Черный кружевной комплект Penthouse Double spice LXL. Модель: penthouse-4005362lxlb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 96% полиэстер, 4% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -9283,7 +9729,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>96% полиэстер, 4% эластан</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -9321,7 +9767,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  высота платформы 4 см</t>
+          <t>лиф, стринги</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -9341,13 +9787,13 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -9357,12 +9803,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Туфли бордовые с заклепками 39 SALE -</t>
+          <t>Кружевной комплект Penthouse Double</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-6632-1299</t>
+          <t>id-26680-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -9381,18 +9827,22 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> высота каблука 14 см</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26680/26680_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26680/26680_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26680/26680_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Туфли бордовые с заклепками 39 (SALE - 50%).  Туфли бордовые с заклепками 39 (SALE - 50%). Модель: erolanta-60515-39r. Белье. Страпоны и фаллопротезы. Эротическое белье для женщин &gt; Обувь. Цвет: бордовый. Материал: 1 2 3. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Комплект эротического белья, состоящий из ажурного бюстгальтера без косточек и трусиков (стринг). Бретельки лифа регулируются по объему. Кружевной комплект Penthouse Double spice ML.  Кружевной комплект Penthouse Double spice ML. Модель: penthouse-4005386mlb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: кофе с молоком. Материал: 96% полиэстер, 4% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -9407,7 +9857,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>96% полиэстер, 4% эластан</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -9445,7 +9895,7 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  высота платформы 3,5 см</t>
+          <t>лиф, стринги</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -9465,13 +9915,13 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Страпоны</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -9481,22 +9931,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Туфли черно-розовые лакированные с</t>
+          <t>Кружевной комплект Penthouse Double</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-6534-1299</t>
+          <t>id-26681-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -9505,18 +9955,22 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> высота каблука 14,5 см</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26681/26681_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26681/26681_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26681/26681_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Туфли черно-розовые лакированные с заклепками 39 (SALE - 50%).  Туфли черно-розовые лакированные с заклепками 39 (SALE - 50%). Модель: erolanta-60518-39pb. Белье. Страпоны и фаллопротезы. Эротическое белье для женщин &gt; Обувь. Цвет: черный с розовым. Материал: 1 2 3. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Комплект эротического белья, состоящий из ажурного бюстгальтера без косточек и трусиков (стринг). Бретельки лифа регулируются по объему. Кружевной комплект Penthouse Double spice LXL.  Кружевной комплект Penthouse Double spice LXL. Модель: penthouse-4005393lxl. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: кофе с молоком. Материал: 96% полиэстер, 4% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -9531,7 +9985,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>96% полиэстер, 4% эластан</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -9569,7 +10023,7 @@
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  высота платформы 3,5 см</t>
+          <t>лиф, стринги</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -9589,13 +10043,13 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -9605,22 +10059,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Эротическая комбинация с разрезами</t>
+          <t>Бесшовное мини-платье с вырезами</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-28245-1299</t>
+          <t>id-26685-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>40-46</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -9632,30 +10086,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26685/26685_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26685/26685_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26685/26685_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комбинация Erolanta Margarita с открытой грудью, из эластичной сетки со вставками кружева. Бюст и подол декорированы мягкими оборками. Регулируемые бретели.Допускается замена кружева на аналогичное. Эротическая комбинация с разрезами MARGARITA ML.  Эротическая комбинация с разрезами MARGARITA ML. Модель: erolanta-740011mlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Бесшовное мини-платье с оригинальными вырезами соблазнительно облегает тело, будоража сознание вашего партнера. Бесшовное мини-платье с вырезами Penthouse Flame on the rock SL.  Бесшовное мини-платье с вырезами Penthouse Flame on the rock SL. Модель: penthouse-4005492slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>91% полиамид, 9% эластан</t>
+          <t>88% нейлон, 12% эластан</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -9693,7 +10151,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>комбинация</t>
+          <t>мини-платье</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -9713,13 +10171,13 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -9729,22 +10187,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Бралетт удлиненный LXL</t>
+          <t>Ажурное платье в комплекте с трусиками</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-19851-1299</t>
+          <t>id-26691-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -9756,30 +10214,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26691/26691_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26691/26691_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26691/26691_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий удлиненный топ из эластичной сетки со вставками кружева, с декоративными вырезами. Регулируемые бретели. Застежка на шее. Двухрядная застежка на спине. Бралетт удлиненный LXL.  Бралетт удлиненный LXL. Модель: erolanta-742041lxlb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Ажурное платье в комплекте с трусиками и ажурным головным аксессуаром. Ажурное платье в комплекте с трусиками и повязкой Poison cookie LXL.  Ажурное платье в комплекте с трусиками и повязкой Poison cookie LXL. Модель: penthouse-4005775lxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан</t>
+          <t>88% нейлон, 12% эластан</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -9817,7 +10279,7 @@
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>мини-платье, стринги, повязка на голову</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
@@ -9837,13 +10299,13 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -9853,22 +10315,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Бралетт с перекрещиванием на груди</t>
+          <t>Соблазнительный полупрозрачный халатик</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-19854-1299</t>
+          <t>id-25868-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -9880,15 +10342,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25868/25868_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25868/25868_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25868/25868_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мягкий кружевной удлиненный топ с декоративными вырезами. Регулируемые бретели. Двухрядная застежка на спине. Бралетт с перекрещиванием на груди удлиненный LXL.  Бралетт с перекрещиванием на груди удлиненный LXL. Модель: erolanta-742051lxlb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Материал: сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Откровенный полупрозрачный халатик с атласным поясом. Крой халатика рассчитан носить его не на запАх, а как накидку, которую легко и игриво можно в считанные секунды сбросить с себя. Просто незаменимая вещь при романтическом вечере.В комплекте стринги. Соблазнительный полупрозрачный халатик Penthouse Midnight mirage SL.  Соблазнительный полупрозрачный халатик Penthouse Midnight mirage SL. Модель: penthouse-4005966slb. Белье. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -9903,7 +10369,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>сетка:91% полиамид,9% эластан, кружево:85% полиамид,15% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -9941,7 +10407,7 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>халатик, стринги</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -9961,13 +10427,13 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Топы эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -9977,22 +10443,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Бралетт с воланами и застежкой спереди</t>
+          <t>Пеньюар в комплекте с трусиками</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-27243-1299</t>
+          <t>id-25895-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -10004,15 +10470,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25895/25895_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25895/25895_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25895/25895_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бралетт Lora от Erolanta поможет вам стать магически привлекательной.Мягкий лиф из прозрачной эластичной сетки с регулируемыми бретелями интригующе приоткрывает грудь. Кокетливые воланы околдовывают ритмичными покачиваниями. А дерзкие стрепы приковывают взгляд к зоне декольте.Бралетт Lora от Erolanta - ваша магия обольщения.На видео бралетт Erolanta Lora дополнен идеально сочетающимися трусиками Erolanta Lana. Бралетт с воланами и застежкой спереди LORA LXL.  Бралетт с воланами и застежкой спереди LORA LXL. Модель: erolanta-742111lxlb. Белье. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 91% полиамид, 9% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Пеньюар в мелкую сетку с оригинальным ажурным лифом. В комплект входят трусики (стринги). Пеньюар в комплекте с трусиками Penthouse Bedtime story SM.  Пеньюар в комплекте с трусиками Penthouse Bedtime story SM. Модель: penthouse-4006222smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 73% полиэстер, 27% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -10027,7 +10497,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>91% полиамид, 9% эластан</t>
+          <t>73% полиэстер, 27% эластан</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -10065,7 +10535,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>бралетт</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10085,13 +10555,13 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Пэстис эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10101,22 +10571,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Пестис в форме сердец с розовыми</t>
+          <t>Черный пеньюар со стрингами Penthouse</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-20920-1299</t>
+          <t>id-26659-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -10128,30 +10598,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26659/26659_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26659/26659_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26659/26659_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Наклейки на соски многоразовые. Конус выполнен из полиуретана, внутри - слой силиконового геля. Декор: сатин со стразами и серебристая металлическая цепочка.Размер основания: 5 см. Длина цепочки: 28 см.Наклеивать на чистую кожу без следов косметических средств. Снимать осторожно. После использования внутреннюю сторону промыть теплой водой.Хранить, изолировав клейкий слой пленкой или приклеив к стеклянной поверхности (зеркалу).Не использовать при гиперчувствительности к силикону, нарушениях пигментации или повреждениях кожи груди. Пестис в форме сердец с розовыми стразами и цепочкой черные Erolanta.  Пестис в форме сердец с розовыми стразами и цепочкой черные Erolanta. Модель: erolanta-790054. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: черный, розовый. Материал: полиуретан, силиконовый гель, сатин, стразы, металл. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Мини-платье в мелкую сеточку с оригинальным ажурным лифом. Черный пеньюар со стрингами Penthouse All yours SM.  Черный пеньюар со стрингами Penthouse All yours SM. Модель: penthouse-4006499smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>полиуретан, силиконовый гель, сатин, стразы, металл</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -10189,7 +10663,7 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -10209,13 +10683,13 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Пэстис эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10225,22 +10699,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Пестис в виде мишени с кистями Erolanta</t>
+          <t>Черный пеньюар со стрингами Penthouse</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-20845-1299</t>
+          <t>id-26660-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -10252,30 +10726,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26660/26660_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26660/26660_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26660/26660_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Наклейки на соски многоразовые. Конус выполнен из полиуретана, внутри - слой силиконового геля. Декор: пайетки, кисточки.Размер основания: 5 см. Длина кисти: 11 см.Наклеивать на чистую кожу без следов косметических средств. Снимать осторожно. После использования внутреннюю сторону промыть теплой водой.Хранить, изолировав клейкий слой пленкой или приклеив к стеклянной поверхности (зеркалу).Не использовать при гиперчувствительности к силикону, нарушениях пигментации или повреждениях кожи груди. Пестис в виде мишени с кистями Erolanta.  Пестис в виде мишени с кистями Erolanta. Модель: erolanta-790123. Белье. Аксессуары, украшения для тела &gt; Стикини, пестис. Красивая грудь &gt; Украшения. Цвет: красный, белый. Материал: полиуретан, силиконовый гель, пайетки. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Мини-платье в мелкую сеточку с оригинальным ажурным лифом. Черный пеньюар со стрингами Penthouse All yours ML.  Черный пеньюар со стрингами Penthouse All yours ML. Модель: penthouse-4006505mlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>полиуретан, силиконовый гель, пайетки</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -10313,7 +10791,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -10333,13 +10811,13 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -10349,22 +10827,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Комплект с рюшами</t>
+          <t>Белый пеньюар со стрингами Penthouse</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-744-1299</t>
+          <t>id-26656-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -10376,15 +10854,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26656/26656_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26656/26656_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26656/26656_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Комплект с рюшами.  Комплект с рюшами. Модель: erolanta-861026slb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: розово-черный. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Мини-платье в мелкую сеточку с оригинальным ажурным лифом. Белый пеньюар со стрингами Penthouse All yours SM.  Белый пеньюар со стрингами Penthouse All yours SM. Модель: penthouse-4006529smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -10397,7 +10879,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>100% полиэстер</t>
+        </is>
+      </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr">
         <is>
@@ -10433,7 +10919,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>Лиф, шортики</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10453,13 +10939,13 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -10469,12 +10955,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Корсет со стрингами M</t>
+          <t>Полупрозрачный ажурный халат Penthouse</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-6581-1299</t>
+          <t>id-25871-1299</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -10496,30 +10982,34 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25871/25871_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25871/25871_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25871/25871_3_650.jpg</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Корсет со стрингами M.  Корсет со стрингами M. Модель: erolanta-863014mb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Корсеты. Цвет: черный с фиолетовым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Откровенный полупрозрачный ажурный халат с атласным поясом. В комплект входят трусики (стринги). Полупрозрачный ажурный халат Penthouse Sweet retreat XL.  Полупрозрачный ажурный халат Penthouse Sweet retreat XL. Модель: penthouse-4006567xlb. Белье. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 95% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>95% нейлон, 5% спандекс</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -10557,7 +11047,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>Корсет, стринги</t>
+          <t>халат, стринги</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -10577,38 +11067,38 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Бюстье со стрнгами S</t>
+          <t>Наручники металлические мощные</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-6580-1299</t>
+          <t>id-18731-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -10617,33 +11107,37 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr"/>
+          <t xml:space="preserve"> Толщина — 0,7 см</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18731/18731_вес_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18731/18731_-_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18731/18731_867_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18731/18731_грамм_650.jpg</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Бюстье со стрнгами S.  Бюстье со стрнгами S. Модель: erolanta-863023sb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черно-белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Наручники металлические мощные.  Наручники металлические мощные. Модель: penthouse-p3015M. Секс-игрушки. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: серебряный. 1 2 3 4 5Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -10667,8 +11161,12 @@
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="inlineStr"/>
-      <c r="AG84" t="inlineStr"/>
+      <c r="AF84" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>6.2</v>
+      </c>
       <c r="AH84" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10681,7 +11179,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>Бюстье, стринги</t>
+          <t xml:space="preserve"> Ширина — 3,8 см</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -10701,40 +11199,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ками с пажами на косточках SM</t>
+          <t>Металлическое двойное эрекционное</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-15562-1299</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>42-44</t>
-        </is>
-      </c>
+          <t>id-19521-1299</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>99999</v>
@@ -10744,15 +11234,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19521/19521_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19521/19521_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Ками с пажами на косточках SM.  Ками с пажами на косточках SM. Модель: erolanta-920038smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный, розовый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Эрекционные кольца используются для продления полового акта и усиления ощущений. Два кольца выполнены из металла и имеют различный диаметр. Кольца объединены кожаной лентой. Металлическое двойное эрекционное кольцо.  Металлическое двойное эрекционное кольцо. Модель: penthouse-p3076. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. БДСМ товары и фетиш &gt; Аксессуары. Цвет: черный с серебристым. Материал: металл, кожа. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -10767,7 +11261,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>металл, кожа</t>
         </is>
       </c>
       <c r="S85" t="inlineStr"/>
@@ -10791,8 +11285,12 @@
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="inlineStr"/>
+      <c r="AF85" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>3.8</v>
+      </c>
       <c r="AH85" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -10805,7 +11303,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>ками, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -10825,38 +11323,38 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Пояса верности</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Бюстье со стрингами</t>
+          <t>Пояс верности для мужчин металлический</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-4278-1299</t>
+          <t>id-18729-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XXXL</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>56-58</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -10865,18 +11363,22 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr"/>
+          <t>пояс верности (насадка плюс кольцо), замочек с ключами</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18729/18729_18729_650.jpg</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Бюстье со стрингами.  Бюстье со стрингами. Модель: erolanta-920039slb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Пояс верности для мужчин металлический.  Пояс верности для мужчин металлический. Модель: penthouse-p3130m. БДСМ. БДСМ товары и фетиш &gt; Пояса верности. Цвет: серебряный. металлБренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -10925,7 +11427,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>Бюстье, стринги</t>
+          <t xml:space="preserve"> внутренний диаметр кольца 4,5 см</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -10945,58 +11447,54 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Прозрачное бюстье с кожаными вставками</t>
+          <t>Анальный стимулятор с двойными шариками</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-15098-1299</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-18909-1299</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>99999</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr"/>
+          <t>Анальный стимулятор с двойными шариками и кольцом</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18909/18909_18909_650.jpg</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Прозрачное бюстье с кожаными вставками и стрингами.  Прозрачное бюстье с кожаными вставками и стрингами. Модель: erolanta-920040slb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Цвет: черный, белый. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Анальный стимулятор с двойными шариками и кольцом.  Анальный стимулятор с двойными шариками и кольцом. Модель: penthouse-p3137M. Секс-игрушки. Анальные стимуляторы и пробки &gt; Шарики и цепочки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Насадки и кольца &gt; Эрекционные. БДСМ товары и фетиш &gt; Анальные крюки для фиксации и подвешивания. Цвет: серебряный. металлБренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -11009,11 +11507,7 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>100% полиамид</t>
-        </is>
-      </c>
+      <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
@@ -11035,8 +11529,12 @@
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="inlineStr"/>
+      <c r="AF87" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>3</v>
+      </c>
       <c r="AH87" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11049,7 +11547,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>бюстье, стринги</t>
+          <t xml:space="preserve"> внутренний диаметр кольца 4,5 см</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11069,38 +11567,38 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Полупрозрачный розовый комплект белья с</t>
+          <t>Эластичный шлем с открытым ртом и</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-18684-1299</t>
+          <t>id-22215-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -11112,10 +11610,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22215/22215_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22215/22215_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Полупрозрачный розовый комплект белья с узором SM.  Полупрозрачный розовый комплект белья с узором SM. Модель: erolanta-920043p. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный, розовый, бронзовый. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Шлем Бандитка с прорезями для глаз и рта. Размер универсальный. Эластичный шлем с открытым ртом и глазами.  Эластичный шлем с открытым ртом и глазами. Модель: penthouse-p3174b. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -11135,7 +11637,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>100% полиамид</t>
+          <t>88% полиамид, 12% эластан</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -11173,7 +11675,7 @@
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>бра, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
@@ -11193,28 +11695,28 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Топ с шортиками</t>
+          <t>Эластичный шлем с открытым ртом</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-4205-1299</t>
+          <t>id-22214-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -11236,10 +11738,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22214/22214_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Топ с шортиками.  Топ с шортиками. Модель: erolanta-920044slp. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: розовый. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Шлем плотно прилегает к голове, не сковывая движения рта. Размер универсальный. Эластичный шлем с открытым ртом.  Эластичный шлем с открытым ртом. Модель: penthouse-p3175b. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: 94% полиамид, 6% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11257,7 +11763,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>94% полиамид, 6% эластан</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr"/>
       <c r="T89" t="inlineStr">
         <is>
@@ -11293,7 +11803,7 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>Топ, шортики</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -11313,40 +11823,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Маски эротик</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Стринги черные матовые из серии DARINA</t>
+          <t>Маска тканевая красно-черная</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-19578-1299</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-19070-1299</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>99999</v>
@@ -11356,10 +11858,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19070/19070_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19070/19070_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erolanta Darina - линия женских товаров по демократичной цене.Невесомые трусики - один из основных предметов гардероба соблазнения. Подобные ''мелочи'' необходимы каждой женщине.Т-стринги выполнены из матовой непрозрачной трикотажной ткани. Окантовка, пояс и перемычка из эластичного мягкого материала обеспечивают модели универсальный размер, не сдавливают, практически не ощущаются на теле.Базовый цвет, лаконичный дизайн модели, универсальный размер, современная упаковка и приятная цена - все это Erolanta Darina. Стринги черные матовые из серии DARINA.  Стринги черные матовые из серии DARINA. Модель: erolanta-930011slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 88% нейлон, 12% спандекс. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Маска тканевая красно-черная.  Маска тканевая красно-черная. Модель: penthouse-p3179RB. Секс-игрушки. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: красно-черный. Материал: текстиль. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -11379,7 +11885,7 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% спандекс</t>
+          <t>текстиль</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -11394,13 +11900,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
+      <c r="W90" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="X90" t="n">
+        <v>21.45</v>
+      </c>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="inlineStr"/>
-      <c r="AC90" t="inlineStr"/>
+      <c r="AB90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>7.15</v>
+      </c>
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr"/>
@@ -11437,13 +11951,13 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -11453,24 +11967,16 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Нежные белые кружевные стринги из серии</t>
+          <t>Комплект БДСМ: фиксатор шея-руки и</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-19581-1299</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-19124-1299</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>99999</v>
@@ -11480,10 +11986,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19124/19124_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19124/19124_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erolanta Darina - линия женских товаров по демократичной цене.Невесомые трусики - один из основных предметов гардероба соблазнения. Подобные ''мелочи'' необходимы каждой женщине.Т-стринги выполнены из кружева. Окантовка, пояс и перемычка из эластичного мягкого материала обеспечивают модели универсальный размер, не сдавливают, практически не ощущаются на теле.Базовый цвет, лаконичный дизайн модели, универсальный размер, современная упаковка и приятная цена - все это Erolanta Darina. Нежные белые кружевные стринги из серии DARINA.  Нежные белые кружевные стринги из серии DARINA. Модель: erolanta-930022slw. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: белый. Материал: 88% нейлон, 12% спандекс. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Комплект БДСМ: фиксатор шея-руки и стринги с заклепками.  Комплект БДСМ: фиксатор шея-руки и стринги с заклепками. Модель: penthouse-p3221b. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. БДСМ товары и фетиш &gt; Наборы. Цвет: черный с серебряным. Материал: кожа искусственная, металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -11503,7 +12013,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% спандекс</t>
+          <t>кожа искусственная, металл</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -11561,38 +12071,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Комплекты БДСМ</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Стринги кружевные черные из серии</t>
+          <t>Цепочка овально-звеньевая с карабинами</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-19582-1299</t>
+          <t>id-19519-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -11604,10 +12114,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19519/19519_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erolanta Darina - линия женских товаров по демократичной цене.Невесомые трусики - один из основных предметов гардероба соблазнения. Подобные ''мелочи'' необходимы каждой женщине.Т-стринги выполнены из кружева без окантовки спереди. Пояс и перемычка из эластичного мягкого материала обеспечивают модели универсальный размер, не сдавливают, практически не ощущаются на теле.Базовый цвет, лаконичный дизайн модели, универсальный размер, современная упаковка и приятная цена - все это Erolanta Darina. Стринги кружевные черные из серии DARINA.  Стринги кружевные черные из серии DARINA. Модель: erolanta-930031slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 88% нейлон, 12% спандекс. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Цепочка овально-звеньевая с карабинами 28 см.  Цепочка овально-звеньевая с карабинами 28 см. Модель: penthouse-p3233M. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Цвет: серебристый. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -11627,7 +12141,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% спандекс</t>
+          <t>металл</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -11685,28 +12199,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Стринги кружевные красные из серии</t>
+          <t>Цепь с двумя карабинами</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-19583-1299</t>
+          <t>id-19106-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -11728,10 +12242,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19106/19106_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erolanta Darina - линия женских товаров по демократичной цене.Невесомые трусики - один из основных предметов гардероба соблазнения. Подобные ''мелочи'' необходимы каждой женщине.Т-стринги выполнены из кружева без окантовки спереди. Пояс и перемычка из эластичного мягкого материала обеспечивают модели универсальный размер, не сдавливают, практически не ощущаются на теле.Базовый цвет, лаконичный дизайн модели, универсальный размер, современная упаковка и приятная цена - все это Erolanta Darina. Стринги кружевные красные из серии DARINA.  Стринги кружевные красные из серии DARINA. Модель: erolanta-930033slr. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: красный. Материал: 88% нейлон, 12% спандекс. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Цепь с двумя карабинами.  Цепь с двумя карабинами. Модель: penthouse-p3234M. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: серебряный. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -11751,7 +12269,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% спандекс</t>
+          <t>металл</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
@@ -11809,38 +12327,38 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Стринги из мелкой сеточки черные из</t>
+          <t>Цепочка овально-звеньевая с карабинами</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-19580-1299</t>
+          <t>id-19520-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -11852,10 +12370,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19520/19520_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erolanta Darina - линия женских товаров по демократичной цене.Невесомые трусики - один из основных предметов гардероба соблазнения. Подобные ''мелочи'' необходимы каждой женщине.Т-стринги выполнены из сетчатой трикотажной ткани. Окантовка, пояс и перемычка из эластичного мягкого материала обеспечивают модели универсальный размер, не сдавливают, практически не ощущаются на теле.Базовый цвет, лаконичный дизайн модели, универсальный размер, современная упаковка и приятная цена - все это Erolanta Darina. Стринги из мелкой сеточки черные из серии DARINA.  Стринги из мелкой сеточки черные из серии DARINA. Модель: erolanta-930041slb. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: черный. Материал: 88% нейлон, 12% спандекс. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">Цепь с карабинами из коллекции PentHouse. Общая длина составляет 48 см. Цепочка овально-звеньевая с карабинами 48 см.  Цепочка овально-звеньевая с карабинами 48 см. Модель: penthouse-p3235M. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. БДСМ товары и фетиш &gt; Аксессуары. Цвет: серебристый. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -11875,7 +12397,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% спандекс</t>
+          <t>металл</t>
         </is>
       </c>
       <c r="S94" t="inlineStr"/>
@@ -11933,13 +12455,13 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Трусы эротик</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -11949,24 +12471,16 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Стринги из мелкой сеточки красные из</t>
+          <t>Мощные зажимы на соски со звенящим</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-19579-1299</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-18962-1299</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>99999</v>
@@ -11976,10 +12490,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18962/18962_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18962/18962_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erolanta Darina - линия женских товаров по демократичной цене.Невесомые трусики - один из основных предметов гардероба соблазнения. Подобные ''мелочи'' необходимы каждой женщине.Т-стринги выполнены из сетчатой трикотажной ткани. Окантовка, пояс и перемычка из эластичного мягкого материала обеспечивают модели универсальный размер, не сдавливают, практически не ощущаются на теле.Базовый цвет, лаконичный дизайн модели, универсальный размер, современная упаковка и приятная цена - все это Erolanta Darina. Стринги из мелкой сеточки красные из серии DARINA.  Стринги из мелкой сеточки красные из серии DARINA. Модель: erolanta-930043slr. Белье. Эротическое белье для женщин &gt; Трусики, стринги, шортики. Цвет: красный. Материал: 88% нейлон, 12% спандекс. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Мощные зажимы на соски со звенящим бубенчиком.  Мощные зажимы на соски со звенящим бубенчиком. Модель: penthouse-p3236M. Секс-игрушки. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серебряный с бронзовым. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -11999,7 +12517,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% спандекс</t>
+          <t>металл</t>
         </is>
       </c>
       <c r="S95" t="inlineStr"/>
@@ -12016,9 +12534,15 @@
       </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
-      <c r="AA95" t="inlineStr"/>
+      <c r="Y95" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>13.5</v>
+      </c>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="inlineStr"/>
@@ -12057,38 +12581,38 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Чулки под пояс в крупную черную сеточку</t>
+          <t>Мощные зажимы для груди с кольцами</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-19575-1299</t>
+          <t>id-19104-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -12097,13 +12621,17 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr"/>
+          <t>Мощные зажимы для груди с кольцами</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19104/19104_19104_650.jpg</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erolanta Darina - линия женских товаров по демократичной цене.Чулки под пояс - один из основных предметов гардероба соблазнения. Подобные ''мелочи'' необходимы каждой женщине.Крупная сетка обеспечивает модели универсальный размер. Эластичная кружевная резинка без силиконовых полос добавляет эффектность образу.Базовый цвет, лаконичный дизайн модели, универсальный размер, современная упаковка и приятная цена - все это Erolanta Darina. Чулки под пояс в крупную черную сеточку с кружевной резинкой.  Чулки под пояс в крупную черную сеточку с кружевной резинкой. Модель: erolanta-931011slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 88% нейлон, 12% спандекс. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Мощные зажимы для груди с кольцами.  Мощные зажимы для груди с кольцами. Модель: penthouse-p3237M. БДСМ. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серебряный. металлБренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -12121,11 +12649,7 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>88% нейлон, 12% спандекс</t>
-        </is>
-      </c>
+      <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
@@ -12161,7 +12685,7 @@
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve"> диаметр кольца 4,5 см </t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
@@ -12181,38 +12705,38 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Чулки под пояс в мелкую черную сеточку</t>
+          <t>Мощные зажимы для груди с тяжелой</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-19576-1299</t>
+          <t>id-19101-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -12224,10 +12748,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19101/19101_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19101/19101_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erolanta Darina - линия женских товаров по демократичной цене.Чулки под пояс - один из основных предметов гардероба соблазнения. Подобные ''мелочи'' необходимы каждой женщине.Мелка эластичная сетка обеспечивает модели универсальный размер. Кружевная резинка без силиконовых полос добавляет эффектность образу.Базовый цвет, лаконичный дизайн модели, универсальный размер, современная упаковка и приятная цена - все это Erolanta Darina. Чулки под пояс в мелкую черную сеточку с кружевной резинкой.  Чулки под пояс в мелкую черную сеточку с кружевной резинкой. Модель: erolanta-931021slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 88% нейлон, 12% спандекс. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Мощные зажимы для груди с тяжелой цепочкой.  Мощные зажимы для груди с тяжелой цепочкой. Модель: penthouse-p3238M. БДСМ. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серебряный. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12247,7 +12775,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% спандекс</t>
+          <t>металл</t>
         </is>
       </c>
       <c r="S97" t="inlineStr"/>
@@ -12305,13 +12833,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12321,24 +12849,16 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Черные чулки под пояс с плотной</t>
+          <t>Маленькая рельефная металлическая</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-19754-1299</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-18730-1299</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>99999</v>
@@ -12348,15 +12868,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18730/18730_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18730/18730_2_650.jpg</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erolanta Darina - линия женских товаров по демократичной цене.Чулки под пояс - один из основных предметов гардероба соблазнения. Подобные ''мелочи'' необходимы каждой женщине.Крупная сетка обеспечивает модели универсальный размер. Эластичная кружевная резинка без силиконовых полос добавляет эффектность образу.Базовый цвет, лаконичный дизайн модели, универсальный размер, современная упаковка и приятная цена - все это Erolanta Darina. Черные чулки под пояс с плотной резинкой.  Черные чулки под пояс с плотной резинкой. Модель: erolanta-931031slb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 88% нейлон, 12% спандекс. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Маленькая рельефная металлическая пробка с красно-алым кристаллом.  Маленькая рельефная металлическая пробка с красно-алым кристаллом. Модель: penthouse-p3243M-11. Секс-игрушки. Анальные стимуляторы и пробки &gt; Металлические пробки. Цвет: золотой с красно-алым. Материал: металл, кристалл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
@@ -12371,7 +12895,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% спандекс</t>
+          <t>металл, кристалл</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
@@ -12388,15 +12912,29 @@
       </c>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
+      <c r="Y98" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>7</v>
+      </c>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
-      <c r="AD98" t="inlineStr"/>
-      <c r="AE98" t="inlineStr"/>
-      <c r="AF98" t="inlineStr"/>
-      <c r="AG98" t="inlineStr"/>
+      <c r="AD98" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>3.2</v>
+      </c>
       <c r="AH98" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12409,7 +12947,7 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пробка, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -12429,13 +12967,13 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -12445,24 +12983,16 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Перчатки длинные ажурные красные</t>
+          <t>Анальная малая золотистая пробка с</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-19274-1299</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-18964-1299</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>99999</v>
@@ -12472,10 +13002,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18964/18964_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Перчатки длинные ажурные красные.  Перчатки длинные ажурные красные. Модель: erolanta-9319051slr. Белье. Эротическое белье для женщин &gt; Перчатки, подвязки на ногу, маски для сна. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Анальная малая золотистая пробка с полосатым хвостом.  Анальная малая золотистая пробка с полосатым хвостом. Модель: penthouse-p3246M. Секс-игрушки. Анальные стимуляторы и пробки &gt; Металлические пробки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: золотистый, полосатый мех. Материал: металл,мех. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -12495,7 +13029,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>металл,мех</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -12512,15 +13046,25 @@
       </c>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
+      <c r="Y99" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>26</v>
+      </c>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
       <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr"/>
+      <c r="AF99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>3</v>
+      </c>
       <c r="AH99" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12533,7 +13077,7 @@
       <c r="AM99" t="inlineStr"/>
       <c r="AN99" t="inlineStr">
         <is>
-          <t>пара перчаток</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO99" t="inlineStr">
@@ -12553,13 +13097,13 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -12569,24 +13113,16 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Колготки в мелкую черную сеточку с</t>
+          <t>Анальная малая серебристая пробка с</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-19577-1299</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-18966-1299</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>99999</v>
@@ -12596,10 +13132,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18966/18966_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erolanta Darina - линия женских товаров по демократичной цене.Колготки с вырезами на ягодицах - один из основных предметов гардероба соблазнения. Подобные ''мелочи'' необходимы каждой женщине.Эластичная сетка обеспечивает модели универсальный размер. Тонкий пояс подчеркивает талию.Базовый цвет, лаконичный дизайн модели, универсальный размер, современная упаковка и приятная цена - все это Erolanta Darina. Колготки в мелкую черную сеточку с открытой попкой.  Колготки в мелкую черную сеточку с открытой попкой. Модель: erolanta-932011slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 88% нейлон, 12% спандекс. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Анальная малая серебристая пробка с полосатым хвостом.  Анальная малая серебристая пробка с полосатым хвостом. Модель: penthouse-p3249M. Секс-игрушки. Анальные стимуляторы и пробки &gt; Металлические пробки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: серебряный, полосатый мех. Материал: металл, мех. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -12619,7 +13159,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% спандекс</t>
+          <t>металл, мех</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -12636,15 +13176,25 @@
       </c>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
-      <c r="AA100" t="inlineStr"/>
+      <c r="Y100" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>27</v>
+      </c>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="inlineStr"/>
-      <c r="AG100" t="inlineStr"/>
+      <c r="AF100" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>3</v>
+      </c>
       <c r="AH100" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12677,40 +13227,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>EROLANTA</t>
+          <t>PENTHOUSE</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Красный комплект в сеточку из трех</t>
+          <t>Малая золотая пробочка с белым пушистым</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-12180-1299</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-19419-1299</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>99999</v>
@@ -12720,10 +13262,14 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19419/19419_1_650.jpg</t>
+        </is>
+      </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Красный комплект в сеточку из трех предметов.  Красный комплект в сеточку из трех предметов. Модель: erolanta-9353018slr. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: красный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: EROLANTA. </t>
+          <t xml:space="preserve">.Малая золотая пробочка с белым пушистым хвостиком Penthouse.  Малая золотая пробочка с белым пушистым хвостиком Penthouse. Модель: penthouse-p3268. Секс-игрушки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Металлические пробки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: белый с золотым. Материал: металл, натуральный мех. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -12743,7 +13289,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% эластан</t>
+          <t>металл, натуральный мех</t>
         </is>
       </c>
       <c r="S101" t="inlineStr"/>
@@ -12760,15 +13306,29 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
-      <c r="AA101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>21</v>
+      </c>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
-      <c r="AD101" t="inlineStr"/>
-      <c r="AE101" t="inlineStr"/>
-      <c r="AF101" t="inlineStr"/>
-      <c r="AG101" t="inlineStr"/>
+      <c r="AD101" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>0.3</v>
+      </c>
       <c r="AH101" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12781,7 +13341,7 @@
       <c r="AM101" t="inlineStr"/>
       <c r="AN101" t="inlineStr">
         <is>
-          <t>топ, чулки, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO101" t="inlineStr">

--- a/!parsed_items_100/1299/1299_2599-2700.xlsx
+++ b/!parsed_items_100/1299/1299_2599-2700.xlsx
@@ -639,28 +639,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Средства с феромонами</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>NSNOVELTIES</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Концентрированный женский аромат с</t>
+          <t>Эрекционное кольцо с подхватом мошонки</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-17171-1299</t>
+          <t>id-21997-1299</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -671,35 +671,39 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Концентрированный женский аромат с феромонами Musk&amp;amp</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17171/17171_17171_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21997/21997_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21997/21997_2_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Концентрированный женский аромат с феромонами Musk&amp;Pheromone (5 мл).  Концентрированный женский аромат с феромонами Musk. Модель: parfpr-musk-w. Франция-Россия. Pheromone (5 мл). Цвет: для женщин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Удобное эффективное двойное эрекционное кольцо Super Stretchable Lucky 8 от Renegade удобно и супер эффективно повышает силу эрекции, помогает повысить выносливость и, что самое важное, увеличивает удовольствие для вас обоих!Это двойное кольцо уникальной формы, сделанное в виде 8, одновременно плотно прилегает к основанию члена и мошонке. Поддерживая плотную и устойчивую эрекцию, сжимая яички для захватывающего эффекта, двойная конструкция Lucky 8 не только предотвращает слишком быстрое семяизвержение, но и усиливает оргазм, когда наступает подходящее время.Кольца Renegade - Lucky 8 очищаются легко и быстро. Используйте жидкое мыло с водой или средство для очищения секс-игрушек. Эрекционное кольцо с подхватом мошонки Renegade - Lucky 8.  Эрекционное кольцо с подхватом мошонки Renegade - Lucky 8. Модель: nsnov-1111-43. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: эластичный TPE. Батареек нет в комплекте. Бренд: NSNOVELTIES. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>эластичный TPE</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
@@ -712,17 +716,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>7.3</v>
+      </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AF2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1.8</v>
+      </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -735,7 +753,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>5 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -755,40 +773,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NSNOVELTIES</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Кожаный комплект со шнуровкой MARTHA ML</t>
+          <t>Набор эрекционных эластичных колец</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-18516-1299</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-21996-1299</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>99999</v>
@@ -800,32 +810,32 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18516/18516_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18516/18516_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21996/21996_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21996/21996_2_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексапильный и соблазнительный комплект белья от Passion станет отличным подарком для девушек, которые всегда желают выглядеть идеально! Он состоит из интересного топа, юбочки и трусиков-стринги. Материал под кожу чувственно облегает тело, подчеркивая его роскошные изгибы. Оригинальная зона декольте притягивает внимание к груди. Пикантная шнуровка добавляет белью особый шарм. Кожаный комплект со шнуровкой MARTHA ML.  Кожаный комплект со шнуровкой MARTHA ML. Модель: passion-marthaMLbr. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Юбки, брюки, шорты. Цвет: коричневый с черным. Материал: 90% полиэстер, 10% эластан (эко кожа). Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Гладкие эластичные кольца для максимального удовольствия Double Stack предлагают массу возможностей для улучшения секса. Собирай их вместе или носи соло - результаты не подведут!Комбинированное или раздельное ношение в период сексуальных игр обеспечивает продление и усиление эрекции, также это помогает держать ощущение под контролем и пролонгировать секс. Когда наступит подходящее время давление кольца (колец) для многих мужчин усиливает интенсивность оргазма.Супер гладкие и не содержащие фталатов кольца Double Stack очищаются быстро и легко. Используйте жидкое мыло с водой или средство для очищения секс-игрушек. Набор эрекционных эластичных колец Renegade - Double Stack.  Набор эрекционных эластичных колец Renegade - Double Stack. Модель: nsnov-1111-71. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: прозрачный. Материал: эластичный TPE. Батареек нет в комплекте. Бренд: NSNOVELTIES. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан (эко кожа)</t>
+          <t>эластичный TPE</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -849,8 +859,12 @@
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1.8</v>
+      </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -863,7 +877,7 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>юбка, топ, стринги</t>
+          <t>2 кольца</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -883,40 +897,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Насадки на член</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NSNOVELTIES</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Черные колготки с имитацией чулок</t>
+          <t>Рельефная насадка на пенис Renegade</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-20201-1299</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-10264-1299</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>99999</v>
@@ -928,17 +934,17 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20201/20201_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20201/20201_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10264/10264_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10264/10264_1_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Черные колготки с имитацией чулок Passion.  Черные колготки с имитацией чулок Passion. Модель: passion-s002-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Оригинальная прозрачная насадка из эластичного материала с упругими выпуклостями в форме бугорков по периметру. Насадка сквозная и может быть надета как на основание члена, что обеспечит максимальную стимуляцию клитора и предвагинальной зоны девушки. Так же насадку можно одеть и сразу под головку пениса, в этом случае бусины будут являться прекрасными массажерами вагины и точки G. Рельефная насадка на пенис Renegade Reversible Power Cage.  Рельефная насадка на пенис Renegade Reversible Power Cage. Модель: nsnov-1115-21. Секс-игрушки. Насадки и кольца &gt; Без вибрации. Цвет: прозрачный. Материал: гель. Батареек нет в комплекте. Бренд: NSNOVELTIES. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -953,7 +959,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>гель</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -970,15 +976,25 @@
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11</v>
+      </c>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AF4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>3.3</v>
+      </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1011,40 +1027,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Вакуумные помпы эротик</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NSNOVELTIES</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Белые колготки с имитацией чулок</t>
+          <t>Насадка-уплотнитель на большую помпу</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-20200-1299</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22000-1299</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>99999</v>
@@ -1056,17 +1064,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20200/20200_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20200/20200_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22000/22000_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22000/22000_2_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s002-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Прозрачная уплотнительная вставка-вагина для помпы Renegade - Universal Pump Sleeve - Vagina.Наденьте универсальный уплотнитель Renegade Universal Pump Sleeve - Vagina от NS Novelties на помпу размером 2,5 дюйма (6,4 см) и воплотите в жизнь свои сексуальные фантазии. Он сделан из мягкого материала TPE. Он добавляет сексуальное и чувственное ощущение в ваш режим тренировок по увеличению пениса. Насадка-уплотнитель на большую помпу Renegade - Universal Pump Sleeve - Vagina.  Насадка-уплотнитель на большую помпу Renegade - Universal Pump Sleeve - Vagina. Модель: nsnov-1127-31. Секс-игрушки. Вакуумные помпы &gt; Насадки на помпу. Цвет: матовый прозрачный. Материал: нежный TPE (имитация кожи человека). Батареек нет в комплекте. Бренд: NSNOVELTIES. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1081,7 +1089,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>нежный TPE (имитация кожи человека)</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -1105,8 +1113,12 @@
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AF5" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6.3</v>
+      </c>
       <c r="AH5" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1139,40 +1151,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Вакуумные помпы эротик</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NSNOVELTIES</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Черные колготки с имитацией чулок</t>
+          <t>Насадка-уплотнитель на большую помпу</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-20204-1299</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-21999-1299</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>99999</v>
@@ -1184,17 +1188,17 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20204/20204_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20204/20204_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21999/21999_1_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Черные колготки с имитацией чулок Passion.  Черные колготки с имитацией чулок Passion. Модель: passion-s004-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Прозрачная уплотнительная вставка для большой помпы Renegade - Universal Donut - Original.Наденьте универсальный уплотнитель Renegade Universal Donut - Original от NS Novelties на помпу и воплотите в жизнь свои фантазии - нереалистичная вставка поможет в этом. Он сделан из мягкого материала TPE и совместим со всеми типами смазок. Он добавляет сексуальное и чувственное ощущение ваш режим тренировок по увеличению. Насадка-уплотнитель на большую помпу Renegade - Universal Donut - Original.  Насадка-уплотнитель на большую помпу Renegade - Universal Donut - Original. Модель: nsnov-1127-41. Секс-игрушки. Вакуумные помпы &gt; Насадки на помпу. Цвет: прозрачный. Материал: эластичный TPE. Батареек нет в комплекте. Бренд: NSNOVELTIES. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1209,7 +1213,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>эластичный TPE</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
@@ -1233,8 +1237,12 @@
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AF6" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6.3</v>
+      </c>
       <c r="AH6" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1267,40 +1275,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NSNOVELTIES</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Белые колготки с имитацией чулок</t>
+          <t>Черные нейлоновые ленты для фиксации</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-20202-1299</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-17816-1299</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>99999</v>
@@ -1312,17 +1312,17 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20202/20202_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20202/20202_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17816/17816_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17816/17816_2_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s004-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Черные нейлоновые ленты для фиксации Bondage Straps.  Черные нейлоновые ленты для фиксации Bondage Straps. Модель: nsnov-1205-03. Секс-игрушки. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Аксессуары для игр &gt; Наборы и аксессуары. БДСМ товары и фетиш &gt; Наборы. Цвет: черный. Материал: нейлон, пластик. Батареек нет в комплекте. Бренд: NSNOVELTIES. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>нейлон, пластик</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2 ленты</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1395,28 +1395,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Наручники эротик</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NSNOVELTIES</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Черные колготки в сеточку с имитацией</t>
+          <t>Черные виниловые наручники Sinful Wrist</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-20245-1299</t>
+          <t>id-11340-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20245/20245_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20245/20245_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/11340/11340_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/11340/11340_1_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черные колготки в сеточку с имитацией чулок Passion.  Черные колготки в сеточку с имитацией чулок Passion. Модель: passion-s005-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Черные виниловые наручники Sinful Wrist Cuffs.  Черные виниловые наручники Sinful Wrist Cuffs. Модель: nsnov-1223-13. БДСМ. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: винил, неопрен. Батареек нет в комплекте. Бренд: NSNOVELTIES. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>винил, неопрен</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1503,7 +1503,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>наручники, соединяющая цепь</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1523,28 +1523,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Комплекты БДСМ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NSNOVELTIES</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Красные колготки с имитацией чулок</t>
+          <t>Крестообразная фиксация для рук и ног</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-20246-1299</t>
+          <t>id-12536-1299</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20246/20246_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20246/20246_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12536/12536_1_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Красные колготки с имитацией чулок Passion.  Красные колготки с имитацией чулок Passion. Модель: passion-s005-slr. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: красный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Крестообразная фиксация для рук и ног HOGTIE.  Крестообразная фиксация для рук и ног HOGTIE. Модель: nsnov-1227-13. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Цвет: черный. Материал: лакированая искуственная кожа. Батареек нет в комплекте. Бренд: NSNOVELTIES. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>лакированая искуственная кожа</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1651,13 +1651,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Фиксаторы эротик</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NSNOVELTIES</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1667,12 +1667,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Красные колготки с имитацией чулок</t>
+          <t>Ремень на пояс для фиксации рук</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-20205-1299</t>
+          <t>id-12532-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1696,17 +1696,17 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20205/20205_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20205/20205_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12532/12532_1_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Красные колготки с имитацией чулок Passion.  Красные колготки с имитацией чулок Passion. Модель: passion-s006-slr. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: красный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Ремень на пояс для фиксации рук Restraint Belt SM.MD.  Ремень на пояс для фиксации рук Restraint Belt SM.MD. Модель: nsnov-1230-13. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. БДСМ товары и фетиш &gt; Аксессуары. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный. Материал: лакированая искуственная кожа. Батареек нет в комплекте. Бренд: NSNOVELTIES. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>лакированая искуственная кожа</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1779,79 +1779,67 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NOTABU BDSM</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Белые колготки с имитацией чулок</t>
+          <t>Малая золотая пробочка с белым пушистым</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-20207-1299</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-14008-1299</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>99999</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Малая золотая пробочка с белым пушистым хвостиком</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20207/20207_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20207/20207_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14008/14008_14008_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s006-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Малая золотая пробочка с белым пушистым хвостиком.  Малая золотая пробочка с белым пушистым хвостиком. Модель: ntb-80311. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Металлические пробки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: белый с золотым. натуральный мех, металлБренд: NOTABU BDSM. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>80% полиамид, 20% эластан</t>
-        </is>
-      </c>
+          <t>Стандартный</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
@@ -1866,15 +1854,25 @@
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="Y11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7</v>
+      </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
+      <c r="AF11" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.2</v>
+      </c>
       <c r="AH11" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1887,7 +1885,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve"> длина хвостика 12-13 см</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -1907,40 +1905,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NOTABU BDSM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Черные контактные колготки Passion</t>
+          <t>Серебряная металлическая пробочка с</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-20210-1299</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-18504-1299</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>99999</v>
@@ -1952,32 +1942,32 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20210/20210_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20210/20210_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18504/18504_1_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колготки с имитацией трусиков с доступом произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Черные контактные колготки Passion.  Черные контактные колготки Passion. Модель: passion-s012-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Серебряная металлическая пробочка с красным хвостиком.  Серебряная металлическая пробочка с красным хвостиком. Модель: ntb-80325-M-16. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Металлические пробки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: красный, серебряный. Материал: металл, мех. Батареек нет в комплекте. Бренд: NOTABU BDSM. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>металл, мех</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1994,15 +1984,29 @@
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>12</v>
+      </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
+      <c r="AD12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.2</v>
+      </c>
       <c r="AH12" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2015,7 +2019,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пробка, мешочек для хранения</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
@@ -2035,13 +2039,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NOTABU BDSM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2051,22 +2055,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Белые контактные колготки Passion</t>
+          <t>Зажимы на соски с подвесками в виде</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-20209-1299</t>
+          <t>id-20379-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>54-56</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -2080,32 +2084,32 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20209/20209_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20209/20209_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20379/20379_1_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колготки с имитацией трусиков с доступом произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые контактные колготки Passion.  Белые контактные колготки Passion. Модель: passion-s012-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Изящные зажимы для сосков подарят яркие ощущения и незабываемые эмоции любителям БДСМ. Изделия будут стимулировать эрогенные зоны и усилят сексуальное возбуждение.На концах зажимов имеются специальные эластичные накладки, которые препятствуют сильному сдавливанию и травмированию сосков.Подвески в виде сердечек дают эффект утяжеления.На каждом изделии предусмотрен регулировочный винт, позволяющий контролировать силу сдавливания сосков.Секс-игрушки могут использоваться соло или для парных любовных игр.Компактный размер позволит брать зажимы с собой в поездки.БДСМ аксессуары просты в использовании. Не требуют сложного ухода.После использования зажимы рекомендуется обработать очищающим спреем с антимикробным эффектом. Зажимы на соски с подвесками в виде красных сердец.  Зажимы на соски с подвесками в виде красных сердец. Модель: ntb-80467. БДСМ. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: красный, металл. Материал: металл, TPR (термоэластопласт). Батареек нет в комплекте. Бренд: NOTABU BDSM. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>металл, TPR (термоэластопласт)</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -2163,13 +2167,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NOTABU BDSM</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2179,22 +2183,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Черные колготки с имитацией чулок</t>
+          <t>Зажимы на соски с подвесками в виде</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-20249-1299</t>
+          <t>id-20373-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>54-56</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2208,32 +2212,32 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20249/20249_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20249/20249_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20373/20373_1_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Черные колготки с имитацией чулок Passion.  Черные колготки с имитацией чулок Passion. Модель: passion-s013-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Изящные зажимы для сосков подарят яркие ощущения и незабываемые эмоции любителям БДСМ. Изделия будут стимулировать эрогенные зоны и усилят сексуальное возбуждение.На концах зажимов имеются специальные эластичные накладки, которые препятствуют сильному сдавливанию и травмированию сосков.Подвески в виде сердечек дают эффект утяжеления.На каждом изделии предусмотрен регулировочный винт, позволяющий контролировать силу сдавливания сосков.Секс-игрушки могут использоваться соло или для парных любовных игр.Компактный размер позволит брать зажимы с собой в поездки.БДСМ аксессуары просты в использовании. Не требуют сложного ухода.После использования зажимы рекомендуется обработать очищающим спреем с антимикробным эффектом. Зажимы на соски с подвесками в виде черных сердец.  Зажимы на соски с подвесками в виде черных сердец. Модель: ntb-80468. БДСМ. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: черный, металл. Материал: металл, TPR (термоэластопласт). Батареек нет в комплекте. Бренд: NOTABU BDSM. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>металл, TPR (термоэластопласт)</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -2291,38 +2295,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NOTABU BDSM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Красные колготки с имитацией чулок</t>
+          <t>Небольшая анальная втулка с черным</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-20248-1299</t>
+          <t>id-23354-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>54-56</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2336,32 +2340,32 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20248/20248_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20248/20248_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23354/23354_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23354/23354_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23354/23354_2_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Красные колготки с имитацией чулок Passion.  Красные колготки с имитацией чулок Passion. Модель: passion-s013-slr. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: красный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Небольшая анальная втулка с черным хвостом на магните Notabu BDSM.  Небольшая анальная втулка с черным хвостом на магните Notabu BDSM. Модель: ntb-80632. БДСМ. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: черный с серебристым. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: NOTABU BDSM. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>металл, искусственный мех</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -2419,38 +2423,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NOTABU BDSM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Белые колготки с имитацией чулок</t>
+          <t>Средняя анальная втулка с черным</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-20250-1299</t>
+          <t>id-23360-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -2464,32 +2468,32 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20250/20250_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20250/20250_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23360/23360_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23360/23360_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23360/23360_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23360/23360_4_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s013-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Средняя анальная втулка с черным хвостом на магните Notabu BDSM.  Средняя анальная втулка с черным хвостом на магните Notabu BDSM. Модель: ntb-80633. БДСМ. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Металлические пробки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: серебряный с черным. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: NOTABU BDSM. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>металл, искусственный мех</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -2547,40 +2551,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Колготки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NOTABU BDSM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Черные контактные колготки с</t>
+          <t>Небольшая анальная втулка с хвостом на</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-20247-1299</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-23358-1299</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>99999</v>
@@ -2592,32 +2588,32 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20247/20247_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20247/20247_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23358/23358_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23358/23358_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23358/23358_3_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Черные контактные колготки с фантазийным узором Passion.  Черные контактные колготки с фантазийным узором Passion. Модель: passion-s015-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Небольшая анальная втулка с хвостом на магните Notabu BDSM.  Небольшая анальная втулка с хвостом на магните Notabu BDSM. Модель: ntb-80634. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Металлические пробки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: серебристый, бежево-черный. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: NOTABU BDSM. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>80% полиамид, 20% эластан</t>
+          <t>металл, искусственный мех</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -2634,15 +2630,29 @@
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="Y17" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>42</v>
+      </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.5</v>
+      </c>
       <c r="AH17" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2675,13 +2685,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NOTABU BDSM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2691,24 +2701,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Классические черные чулочки под пояс на</t>
+          <t>Небольшая анальная втулка с белым</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-21893-1299</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-23359-1299</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>99999</v>
@@ -2720,32 +2722,32 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21893/21893_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21893/21893_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23359/23359_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23359/23359_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23359/23359_3_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические черные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер).  Классические черные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер). Модель: passion-st001-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Небольшая анальная втулка с белым хвостом на магните Notabu BDSM.  Небольшая анальная втулка с белым хвостом на магните Notabu BDSM. Модель: ntb-80636. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Металлические пробки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: серебряный с белым. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: NOTABU BDSM. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>металл, искусственный мех</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -2762,15 +2764,29 @@
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
+      <c r="Y18" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>40</v>
+      </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2.5</v>
+      </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2783,7 +2799,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>чулочки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2803,38 +2819,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NOTABU BDSM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Классические красные чулочки под пояс</t>
+          <t>Небольшая анальная втулка с серым</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-23066-1299</t>
+          <t>id-23355-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>54-56</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -2848,32 +2864,32 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23066/23066_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23355/23355_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23355/23355_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23355/23355_3_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические красные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер).  Классические красные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер). Модель: passion-st001-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Небольшая анальная втулка с серым хвостом на магните Notabu BDSM.  Небольшая анальная втулка с серым хвостом на магните Notabu BDSM. Модель: ntb-80638. БДСМ. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: серый с белым и серебристым. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: NOTABU BDSM. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>металл, искусственный мех</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -2931,40 +2947,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NOTABU BDSM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Классические белые чулочки под пояс на</t>
+          <t>Средняя анальная втулка с серым хвостом</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-23068-1299</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-23357-1299</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>99999</v>
@@ -2976,32 +2984,32 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23068/23068_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23357/23357_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23357/23357_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23357/23357_3_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические белые чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер).  Классические белые чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер). Модель: passion-st001-mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Средняя анальная втулка с серым хвостом на магните Notabu BDSM.  Средняя анальная втулка с серым хвостом на магните Notabu BDSM. Модель: ntb-80639. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: серый с белым и серебристым. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: NOTABU BDSM. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>металл, искусственный мех</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -3018,15 +3026,29 @@
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
+      <c r="Y20" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>40</v>
+      </c>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>3.1</v>
+      </c>
       <c r="AH20" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3059,38 +3081,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>NOTABU BDSM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Классические красные чулочки под пояс</t>
+          <t>Небольшая анальная втулка с серым</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-23065-1299</t>
+          <t>id-23356-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>54-56</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -3104,32 +3126,32 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23065/23065_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23356/23356_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23356/23356_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23356/23356_3_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические красные чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер).  Классические красные чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер). Модель: passion-st001-smr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Небольшая анальная втулка с серым хвостом на магните Notabu BDSM.  Небольшая анальная втулка с серым хвостом на магните Notabu BDSM. Модель: ntb-80640. БДСМ. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: серый, серебристый. Материал: металл, искусственный мех. Батареек нет в комплекте. Бренд: NOTABU BDSM. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>металл, искусственный мех</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -3187,13 +3209,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OBSESSIVE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3203,22 +3225,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Классические белые чулочки под пояс на</t>
+          <t>Черное ками с узором и украшеними на</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-23067-1299</t>
+          <t>id-16434-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -3232,12 +3254,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23067/23067_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16434/16434_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16434/16434_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16434/16434_3_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические белые чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер).  Классические белые чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер). Модель: passion-st001-smw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Сексуальный комплект из деликатной ткани с цветочными узорами. Бретели через плечи и ремешки для чулок регулируются по длине. Чашечки лифа на корсете треугольные, оторочены кружевной оборкой. По центру глубокого декольте изящное украшение из страз на цепочке (без никеля). Кстати, такие же сияющие украшения дополняют подвязки для чулок. Черное ками с узором и украшеними на пажах Diamond Corset SM.  Черное ками с узором и украшеними на пажах Diamond Corset SM. Модель: obses-0049smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: OBSESSIVE. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3257,7 +3279,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -3315,13 +3337,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OBSESSIVE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3331,22 +3353,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Черные чулочки под пояс с полосатой</t>
+          <t>Черный корсаж с бархатным узором</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-21873-1299</t>
+          <t>id-20786-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -3360,12 +3382,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21873/21873_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20786/20786_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20786/20786_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20786/20786_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20786/20786_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20786/20786_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20786/20786_5_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Черные чулочки под пояс с полосатой резинкой Passion (17 den, 3.4 размер).  Черные чулочки под пояс с полосатой резинкой Passion (17 den, 3.4 размер). Модель: passion-st002-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Женственный комплект из корсета на косточках с ремешками для чулок и стринг. Декорирован аппликацией из велюра с цветочным мотивом и кружевом. Регулируемые бретели. За счет шнуровки на спине корсет идеально окутывает Ваше тело и подчеркивает линию талии.Черный корсаж с бархатным узором Emperita Corset SM.  Черный корсаж с бархатным узором Emperita Corset SM. Модель: obses-00957smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: OBSESSIVE. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3385,7 +3407,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>100% полиамид</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -3423,7 +3445,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>чулочки</t>
+          <t>корсаж, стринги</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
@@ -3443,13 +3465,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OBSESSIVE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3459,22 +3481,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Черные чулочки под пояс с полосатой</t>
+          <t>Комплект из пояса и топа с цепями</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-21874-1299</t>
+          <t>id-17282-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -3488,12 +3510,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21874/21874_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17282/17282_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17282/17282_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17282/17282_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17282/17282_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17282/17282_5_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Черные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер).  Черные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер). Модель: passion-st002-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Комплект из пояса и топа с цепями Punker Garter Belt SM.  Комплект из пояса и топа с цепями Punker Garter Belt SM. Модель: obses-01381smb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Пояса для чулок. Цвет: черный. Батареек нет в комплекте. Бренд: OBSESSIVE. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3511,11 +3533,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>100% полиамид</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
@@ -3551,7 +3569,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>чулочки</t>
+          <t>пояс с пажами, топ, стринги</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
@@ -3571,13 +3589,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OBSESSIVE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3587,22 +3605,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Красные чулочки под пояс с полосатой</t>
+          <t>Черный комплект из металлического топа</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-23091-1299</t>
+          <t>id-17283-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3616,12 +3634,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23091/23091_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23091/23091_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17283/17283_1_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Красные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер).  Красные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер). Модель: passion-st002-smr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Черный комплект из металлического топа и кожаных шорт Punker Shorties SM.  Черный комплект из металлического топа и кожаных шорт Punker Shorties SM. Модель: obses-01404smb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Батареек нет в комплекте. Бренд: OBSESSIVE. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3639,11 +3657,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>100% полиамид</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
@@ -3679,7 +3693,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>шорты, топ</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
@@ -3699,13 +3713,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OBSESSIVE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3715,22 +3729,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Черные чулочки под пояс с полосатой</t>
+          <t>Чёрная прозрачная сорочка Electra</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-21872-1299</t>
+          <t>id-16772-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -3744,12 +3758,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21872/21872_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16772/16772_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16772/16772_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16772/16772_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16772/16772_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16772/16772_5_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Черные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер).  Черные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер). Модель: passion-st002-xlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Эротическая комбинация из полупрозрачной лёгкой ткани. Глубоко открытая зона декольте украшена кокетливой оборкой и небольшим свободным бантом из атласной ленты. Бретели регулируются по длине. По нижнему краю комбинации также проходит воздушная оборка. Задняя часть модели украшена ярусом оборок и очаровательной розочкой. Чёрная прозрачная сорочка Electra Chemise SM.  Чёрная прозрачная сорочка Electra Chemise SM. Модель: obses-0261smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 94% полиамид, 6% эластан. Батареек нет в комплекте. Бренд: OBSESSIVE. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3769,7 +3783,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>100% полиамид</t>
+          <t>94% полиамид, 6% эластан</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -3807,7 +3821,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>чулочки</t>
+          <t>сорочка, стринги</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3827,13 +3841,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OBSESSIVE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3843,22 +3857,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Красные чулочки под пояс с полосатой</t>
+          <t>Белоснежная кружевная сорочка с</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-23090-1299</t>
+          <t>id-22635-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -3872,12 +3886,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23090/23090_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23090/23090_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22635/22635_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22635/22635_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22635/22635_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22635/22635_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22635/22635_5_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Красные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер).  Красные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер). Модель: passion-st002-xlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Соблазнительная кружевная сорочка 860 CHE-2 с красивым ажурным узором в белом цвете. Чашечки на косточках подчеркивают грудь. Открытая спина украшена тонкими пересекающими бретелями, длина которых регулируется в четырех местах. Белоснежная кружевная сорочка с косточками и украшением на спине SM.  Белоснежная кружевная сорочка с косточками и украшением на спине SM. Модель: obsessive-860-che-2smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 90% полиамид, 10% эластан. Батареек нет в комплекте. Бренд: OBSESSIVE. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3887,17 +3901,17 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>100% полиамид</t>
+          <t>90% полиамид, 10% эластан</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -3935,7 +3949,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>сорочка, трусики стринг</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -3955,40 +3969,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Графитовые чулочки с широкой кружевной</t>
+          <t>Супер тонкие презервативы OKAMOTO</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-21879-1299</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-17792-1299</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>99999</v>
@@ -4000,32 +4006,32 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21879/21879_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21879/21879_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21879/21879_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17792/17792_1_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Графитовые чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер).  Графитовые чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st003-mlg. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: графитовый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Супер тонкие презервативы OKAMOTO Platinum №10 (10 шт.).  Супер тонкие презервативы OKAMOTO Platinum №10 (10 шт.). Модель: okamoto-101a. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -4040,11 +4046,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
+      <c r="W28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>18</v>
+      </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
@@ -4063,7 +4079,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>чулочки</t>
+          <t>10 презервативов</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -4083,40 +4099,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Красные чулочки с широкой кружевной</t>
+          <t>Презервативы OKAMOTO Crown Ультратонкие</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-21882-1299</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-16576-1299</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>99999</v>
@@ -4128,32 +4136,32 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21882/21882_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21882/21882_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16576/16576_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16576/16576_2_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер).  Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st003-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Презервативы OKAMOTO Crown Ультратонкие (12 шт).  Презервативы OKAMOTO Crown Ультратонкие (12 шт). Модель: okamoto-11124. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -4191,7 +4199,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>чулочки</t>
+          <t>12 шт</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4211,40 +4219,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Черные чулочки с широкой кружевной</t>
+          <t>Презервативы OKAMOTO SKINLESS SKIN</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-21878-1299</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-17760-1299</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>99999</v>
@@ -4256,32 +4256,32 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21878/21878_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21878/21878_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21878/21878_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17760/17760_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17760/17760_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17760/17760_3_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер).  Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер). Модель: passion-st003-xlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Презервативы OKAMOTO SKINLESS SKIN Классические (3 шт).  Презервативы OKAMOTO SKINLESS SKIN Классические (3 шт). Модель: okamoto-160. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -4319,7 +4319,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>чулочки</t>
+          <t>3 шт</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -4339,40 +4339,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Красные чулочки с широкой кружевной</t>
+          <t>Презервативы OKAMOTO SKINLESS SKIN</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-21881-1299</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-17759-1299</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>99999</v>
@@ -4384,32 +4376,32 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21881/21881_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21881/21881_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17759/17759_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17759/17759_2_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер).  Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер). Модель: passion-st003-xlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Презервативы OKAMOTO SKINLESS SKIN Ультратонкие (3 шт).  Презервативы OKAMOTO SKINLESS SKIN Ультратонкие (3 шт). Модель: okamoto-161. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -4447,7 +4439,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>чулочки</t>
+          <t>3 шт</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4467,40 +4459,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Черные чулочки с широкой кружевной</t>
+          <t>Презервативы OKAMOTO SKINLESS SKIN</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-25401-1299</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-17758-1299</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>99999</v>
@@ -4512,32 +4496,32 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25401/25401_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25401/25401_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25401/25401_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17758/17758_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17758/17758_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17758/17758_3_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер).  Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st003mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Презервативы OKAMOTO SKINLESS SKIN Классические (10 шт).  Презервативы OKAMOTO SKINLESS SKIN Классические (10 шт). Модель: okamoto-164. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -4575,7 +4559,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>10 шт</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4595,40 +4579,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Черные чулочки с широкой кружевной</t>
+          <t>Презервативы OKAMOTO SKINLESS SKIN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-25402-1299</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-17757-1299</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>99999</v>
@@ -4640,32 +4616,32 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25402/25402_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25402/25402_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25402/25402_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17757/17757_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17757/17757_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17757/17757_3_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 1.2 размер).  Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 1.2 размер). Модель: passion-st003smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Презервативы OKAMOTO SKINLESS SKIN Ультратонкие (10 шт).  Презервативы OKAMOTO SKINLESS SKIN Ультратонкие (10 шт). Модель: okamoto-165. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -4703,7 +4679,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>10 шт</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4723,40 +4699,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Черные чулки с красным кружевом с</t>
+          <t>Презерватив OKAMOTO SKINLESS SKIN</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-20183-1299</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22156-1299</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>99999</v>
@@ -4768,32 +4736,32 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20183/20183_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22156/22156_1_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Черные чулки с красным кружевом (с силиконом) 3.4.  Черные чулки с красным кружевом (с силиконом) 3.4. Модель: passion-st004-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Классические японские презервативы SKINLESS SKIN сделают Ваши ощущения максимально реалистичными. Презервативы сделаны из латекса и совместимы со смазками на водной и силиконовой основах. Презерватив OKAMOTO SKINLESS SKIN Классический (1 шт).  Презерватив OKAMOTO SKINLESS SKIN Классический (1 шт). Модель: okamoto-1a. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -4851,40 +4819,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Красные чулки с черным кружевом с</t>
+          <t>Презервативы увеличенного размера</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-23435-1299</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-16312-1299</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>99999</v>
@@ -4896,32 +4856,32 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23435/23435_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16312/16312_1_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Красные чулки с черным кружевом (с силиконом) 3.4 (17 Den).  Красные чулки с черным кружевом (с силиконом) 3.4 (17 Den). Модель: passion-st004-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный, черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Презервативы увеличенного размера OKAMOTO JUMBO (3 шт).  Презервативы увеличенного размера OKAMOTO JUMBO (3 шт). Модель: okamoto-222h1101. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -4936,11 +4896,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="W35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
@@ -4959,7 +4929,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 презерватива</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4979,40 +4949,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Черные чулки с красным кружевом с</t>
+          <t>Презервативы OKAMOTO Real Fit No10 10</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-20182-1299</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-16517-1299</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>99999</v>
@@ -5024,17 +4986,17 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20182/20182_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16517/16517_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16517/16517_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16517/16517_3_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Черные чулки с красным кружевом (с силиконом) 1.2.  Черные чулки с красным кружевом (с силиконом) 1.2. Модель: passion-st004-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Презервативы OKAMOTO Real Fit No10 (10 шт).  Презервативы OKAMOTO Real Fit No10 (10 шт). Модель: okamoto-2300. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачные. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -5047,11 +5009,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>87% полиамид, 13% эластан</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
@@ -5064,11 +5022,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+      <c r="W36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X36" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>20.185</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>18.35</v>
+      </c>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
@@ -5087,7 +5055,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>10 презервативов</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -5107,40 +5075,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Черные чулки с красным кружевом с</t>
+          <t>Презервативы OKAMOTO Crown Ультратонкие</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-20181-1299</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-16526-1299</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>99999</v>
@@ -5152,32 +5112,32 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20181/20181_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16526/16526_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16526/16526_2_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Черные чулки с красным кружевом (с силиконом) 5.  Черные чулки с красным кружевом (с силиконом) 5. Модель: passion-st004-xxlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный с красным. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Презервативы OKAMOTO Crown Ультратонкие (3 шт).  Презервативы OKAMOTO Crown Ультратонкие (3 шт). Модель: okamoto-26202. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -5215,7 +5175,7 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 шт</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
@@ -5235,40 +5195,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Белые чулочки с полосатой резинкой на</t>
+          <t>Презервативы увеличенного размера</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-21876-1299</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-16311-1299</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>99999</v>
@@ -5280,32 +5232,32 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21876/21876_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16311/16311_1_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежные тонкие чулки с полосатой резинкой на силиконовой основе. Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 3.4 размер).  Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st005-mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Презервативы увеличенного размера OKAMOTO JUMBO (10 шт).  Презервативы увеличенного размера OKAMOTO JUMBO (10 шт). Модель: okamoto-292d1101. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -5320,11 +5272,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
+      <c r="W38" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X38" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
@@ -5343,7 +5305,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>чулочки</t>
+          <t>10 презервативов</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5363,40 +5325,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Белые чулочки с полосатой резинкой на</t>
+          <t>Презервативы OKAMOTO Strong №10 (10 шт)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-21875-1299</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-16525-1299</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>99999</v>
@@ -5408,32 +5362,32 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21875/21875_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16525/16525_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16525/16525_2_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежные тонкие чулки с полосатой резинкой на силиконовой основе. Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 1.2 размер).  Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 1.2 размер). Модель: passion-st005-smw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Презервативы OKAMOTO Strong №10 (10 шт).  Презервативы OKAMOTO Strong №10 (10 шт). Модель: okamoto-71244. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -5471,7 +5425,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>чулочки</t>
+          <t>10 шт</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5491,40 +5445,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Белые чулочки с полосатой резинкой на</t>
+          <t>Супер тонкие презервативы OKAMOTO</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-21877-1299</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-7840-1299</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>99999</v>
@@ -5536,32 +5482,32 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21877/21877_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7840/7840_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/7840/7840_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/7840/7840_3_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежные тонкие чулки с полосатой резинкой на силиконовой основе. Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 5 размер).  Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 5 размер). Модель: passion-st005-xlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Супер тонкие презервативы OKAMOTO Platinum №3 (3 шт.).  Супер тонкие презервативы OKAMOTO Platinum №3 (3 шт.). Модель: okamoto-p13-24. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -5576,11 +5522,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
+      <c r="W40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X40" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>18</v>
+      </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
@@ -5599,7 +5555,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>чулочки</t>
+          <t>3 презерватива</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
@@ -5619,40 +5575,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Красные чулки в мелкую сеточку с</t>
+          <t>Супер тонкие презервативы облегающей</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-20195-1299</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-8034-1299</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>99999</v>
@@ -5664,32 +5612,32 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20195/20195_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20195/20195_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/8034/8034_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/8034/8034_2_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Красные чулки в мелкую сеточку (с силиконом) 3.4.  Красные чулки в мелкую сеточку (с силиконом) 3.4. Модель: passion-st020-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Супер тонкие презервативы облегающей формы OKAMOTO Real Fit №3 (3 шт.).  Супер тонкие презервативы облегающей формы OKAMOTO Real Fit №3 (3 шт.). Модель: okamoto-rf3-24. Презервативы. Презервативы &gt; Обычные. Материал: натуральный латекс. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Экстра класс</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5704,11 +5652,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
+      <c r="W41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X41" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>18</v>
+      </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
@@ -5727,7 +5685,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 презерватива</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
@@ -5747,40 +5705,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Белые чулки в мелкую сеточку с</t>
+          <t>Презервативы OKAMOTO Skinless Skin</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-20190-1299</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-22340-1299</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>99999</v>
@@ -5792,17 +5742,17 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20190/20190_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20190/20190_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22340/22340_1_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Белые чулки в мелкую сеточку (с силиконом) 3.4.  Белые чулки в мелкую сеточку (с силиконом) 3.4. Модель: passion-st020-mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Толщина слоя составляет 0.05 мм, что на 0.01 мм меньше чем у обычных презервативов. Латексные презервативы цилиндрической формы с увеличенным количеством смазки. Презервативы изготовлены в Японии из натурального латекса высокого качества произведенным в Японии с нанесением силиконовой смазки по специальной запатентованной технологии. Презервативы Okamoto признаны самыми тонкими и прочными латексными презервативами в мире, а их надежность подтверждается проверкой путем использования электростатической технологии. За счет теплопроводности латекса создается ощущение отсутствия презерватива. Это позволит получить максимальные ощущения. Презервативы OKAMOTO Skinless Skin Super Lubricative (10 шт).  Презервативы OKAMOTO Skinless Skin Super Lubricative (10 шт). Модель: okamoto-ssl-10. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс японского происхождения. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5817,7 +5767,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс японского происхождения</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -5832,11 +5782,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
+      <c r="W42" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X42" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
@@ -5855,7 +5815,7 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>10 шт</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
@@ -5875,40 +5835,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Черные чулки в мелкую сеточку с</t>
+          <t>Презервативы OKAMOTO Skinless Skin</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-20196-1299</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-22341-1299</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>99999</v>
@@ -5920,32 +5872,32 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20196/20196_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20196/20196_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22341/22341_1_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Черные чулки в мелкую сеточку (с силиконом) 1.2.  Черные чулки в мелкую сеточку (с силиконом) 1.2. Модель: passion-st020-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Толщина слоя составляет 0.05 мм, что на 0.01 мм меньше чем у обычных презервативов. Латексные презервативы цилиндрической формы с увеличенным количеством смазки. Презервативы изготовлены в Японии из натурального латекса высокого качества произведенным в Японии с нанесением силиконовой смазки по специальной запатентованной технологии. Презервативы Okamoto признаны самыми тонкими и прочными латексными презервативами в мире, а их надежность подтверждается проверкой путем использования электростатической технологии. За счет теплопроводности латекса создается ощущение отсутствия презерватива. Это позволит получить максимальные ощущения. Презервативы OKAMOTO Skinless Skin Super Lubricative (3 шт).  Презервативы OKAMOTO Skinless Skin Super Lubricative (3 шт). Модель: okamoto-ssl-3. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс японского происхождения. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс японского происхождения</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -5960,11 +5912,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
+      <c r="W43" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X43" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
@@ -5983,7 +5945,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>3 шт.</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -6003,40 +5965,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Презервативы</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>OKAMOTO</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Белые чулки в мелкую сеточку с</t>
+          <t>Презервативы OKAMOTO Skinless Skin</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-20192-1299</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>40-42</t>
-        </is>
-      </c>
+          <t>id-22339-1299</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>99999</v>
@@ -6048,17 +6002,17 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20192/20192_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20192/20192_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/22339/22339_1_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Белые чулки в мелкую сеточку (с силиконом) 1.2.  Белые чулки в мелкую сеточку (с силиконом) 1.2. Модель: passion-st020-smw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Толщина слоя составляет 0.06 мм. Презервативы Okamato Skinless Skin серии Super имеют прозрачный цвет и анатомическую форму. В одной упаковке сразу несколько видов презервативов Skinless Skin: Классические (Purity), Анатомические с ароматом ванили (Vanilla), C двойной смазкой (Lubricated). Они дарят непревзойденные натуральные ощущения. Попробуйте и оцените какие подойдут именно вам. Презервативы изготовлены в Японии из натурального латекса высокого качества произведенным в Японии с нанесением силиконовой смазки по специальной запатентованной технологии. Презервативы Okamoto признаны самыми тонкими и прочными латексными презервативами в мире, а их надежность подтверждается проверкой путем использования электростатической технологии. За счет теплопроводности латекса создается ощущение отсутствия презерватива. Это позволит получить максимальные ощущения. Презервативы OKAMOTO Skinless Skin Super (10 шт).  Презервативы OKAMOTO Skinless Skin Super (10 шт). Модель: okamoto-sss-10. Презервативы. Презервативы &gt; Обычные. Цвет: прозрачный. Материал: натуральный латекс японского происхождения. Батареек нет в комплекте. Бренд: OKAMOTO. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Япония</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -6073,7 +6027,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>натуральный латекс японского происхождения</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -6088,11 +6042,21 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
+      <c r="W44" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X44" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>18.5</v>
+      </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
@@ -6111,7 +6075,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>10 шт</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -6131,79 +6095,67 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Черные чулки в мелкую сеточку с</t>
+          <t>Концентрированный мужской аромат с</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-20198-1299</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-17167-1299</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>99999</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Концентрированный мужской аромат с феромонами Musk&amp;amp</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20198/20198_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20198/20198_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17167/17167_17167_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Черные чулки в мелкую сеточку (с силиконом) 5.  Черные чулки в мелкую сеточку (с силиконом) 5. Модель: passion-st020-xxlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Концентрированный мужской аромат с феромонами Musk&amp;Pheromone (5 мл).  Концентрированный мужской аромат с феромонами Musk. Модель: parfpr-musk-m. Франция-Россия. Pheromone (5 мл). Цвет: для мужчин. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>87% полиамид, 13% эластан</t>
-        </is>
-      </c>
+          <t>Косметика, препараты</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
@@ -6239,7 +6191,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -6259,79 +6211,67 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Средства с феромонами</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PASSION</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Телесные чулки в мелкую сеточку с</t>
+          <t>Концентрированный женский аромат с</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-23092-1299</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>50-52</t>
-        </is>
-      </c>
+          <t>id-17171-1299</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>99999</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Концентрированный женский аромат с феромонами Musk&amp;amp</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23092/23092_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17171/17171_17171_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Чулочки в мелкую сетку с кружевным верхом, с силиконом. Ширина кружева 9 см. Телесные чулки в мелкую сеточку (с силиконом) 5.  Телесные чулки в мелкую сеточку (с силиконом) 5. Модель: passion-st020-xxlbg. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: телесный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Концентрированный женский аромат с феромонами Musk&amp;Pheromone (5 мл).  Концентрированный женский аромат с феромонами Musk. Модель: parfpr-musk-w. Франция-Россия. Pheromone (5 мл). Цвет: для женщин. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Польша</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>87% полиамид, 13% эластан</t>
-        </is>
-      </c>
+          <t>Косметика, препараты</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
@@ -6367,7 +6307,7 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>5 мл</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
@@ -6387,7 +6327,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -6403,22 +6343,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Красные чулки в мелкую сеточку с</t>
+          <t>Кожаный комплект со шнуровкой MARTHA ML</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-20194-1299</t>
+          <t>id-18516-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -6432,12 +6372,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20194/20194_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20194/20194_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/18516/18516_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18516/18516_2_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Красные чулки в мелкую сеточку (с силиконом) 5.  Красные чулки в мелкую сеточку (с силиконом) 5. Модель: passion-st020-xxlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Сексапильный и соблазнительный комплект белья от Passion станет отличным подарком для девушек, которые всегда желают выглядеть идеально! Он состоит из интересного топа, юбочки и трусиков-стринги. Материал под кожу чувственно облегает тело, подчеркивая его роскошные изгибы. Оригинальная зона декольте притягивает внимание к груди. Пикантная шнуровка добавляет белью особый шарм. Кожаный комплект со шнуровкой MARTHA ML.  Кожаный комплект со шнуровкой MARTHA ML. Модель: passion-marthaMLbr. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Лифы, топы, бюстье, стрэпы. Эротическое белье для женщин &gt; Юбки, брюки, шорты. Цвет: коричневый с черным. Материал: 90% полиэстер, 10% эластан (эко кожа). Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6457,7 +6397,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>90% полиэстер, 10% эластан (эко кожа)</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -6495,7 +6435,7 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>юбка, топ, стринги</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6515,7 +6455,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -6531,22 +6471,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Черные чулки в крупную сетку с</t>
+          <t>Черные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-20188-1299</t>
+          <t>id-20201-1299</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>50-52</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -6560,12 +6500,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20188/20188_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20188/20188_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20201/20201_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20201/20201_2_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Черные чулки в крупную сетку (с силиконом) 5.  Черные чулки в крупную сетку (с силиконом) 5. Модель: passion-st021-5xxlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Черные колготки с имитацией чулок Passion.  Черные колготки с имитацией чулок Passion. Модель: passion-s002-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6585,7 +6525,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -6643,7 +6583,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -6659,12 +6599,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Черные чулки в крупную сетку с</t>
+          <t>Белые колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-20189-1299</t>
+          <t>id-20200-1299</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -6688,12 +6628,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20189/20189_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20189/20189_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20200/20200_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20200/20200_2_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Черные чулки в крупную сетку (с силиконом) 3.4.  Черные чулки в крупную сетку (с силиконом) 3.4. Модель: passion-st021-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s002-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6713,7 +6653,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -6771,7 +6711,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -6787,22 +6727,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Черные чулки в крупную сетку с</t>
+          <t>Черные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-20187-1299</t>
+          <t>id-20204-1299</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -6816,12 +6756,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20187/20187_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20187/20187_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20204/20204_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20204/20204_2_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Черные чулки в крупную сетку (с силиконом) 1.2.  Черные чулки в крупную сетку (с силиконом) 1.2. Модель: passion-st021-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Черные колготки с имитацией чулок Passion.  Черные колготки с имитацией чулок Passion. Модель: passion-s004-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6841,7 +6781,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -6899,7 +6839,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Чулки эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -6915,22 +6855,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Красные чулки в крупную сетку с</t>
+          <t>Белые колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-20186-1299</t>
+          <t>id-20202-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -6944,12 +6884,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20186/20186_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20186/20186_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20202/20202_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20202/20202_2_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Красные чулки в крупную сетку (с силиконом) 1.2.  Красные чулки в крупную сетку (с силиконом) 1.2. Модель: passion-st021-smr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s004-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6969,7 +6909,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>87% полиамид, 13% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -7043,22 +6983,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Черные колготки в крупную сеточку 1;2</t>
+          <t>Черные колготки в сеточку с имитацией</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-23425-1299</t>
+          <t>id-20245-1299</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -7072,12 +7012,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23425/23425_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20245/20245_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20245/20245_2_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Женственные колготки в сеточку черного цвета. Черные колготки в крупную сеточку 1.2.  Черные колготки в крупную сеточку 1.2. Модель: passion-ti016-1/2b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">.Черные колготки в сеточку с имитацией чулок Passion.  Черные колготки в сеточку с имитацией чулок Passion. Модель: passion-s005-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -7097,7 +7037,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>82% полиамид, 18% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -7171,12 +7111,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Черные колготки в крупную сеточку 3;4</t>
+          <t>Красные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-23426-1299</t>
+          <t>id-20246-1299</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -7200,12 +7140,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23426/23426_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20246/20246_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20246/20246_2_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Женственные колготки в сеточку черного цвета. Черные колготки в крупную сеточку 3.4.  Черные колготки в крупную сеточку 3.4. Модель: passion-ti016-3/4b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Красные колготки с имитацией чулок Passion.  Красные колготки с имитацией чулок Passion. Модель: passion-s005-slr. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: красный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -7225,7 +7165,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>82% полиамид, 18% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -7299,22 +7239,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Черные колготки в фигурную сеточку 1;2</t>
+          <t>Красные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-23427-1299</t>
+          <t>id-20205-1299</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -7328,12 +7268,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23427/23427_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20205/20205_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20205/20205_2_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колготки черного цвета с плетением елочкой. Черные колготки в фигурную сеточку 1.2.  Черные колготки в фигурную сеточку 1.2. Модель: passion-ti017-1/2b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Красные колготки с имитацией чулок Passion.  Красные колготки с имитацией чулок Passion. Модель: passion-s006-slr. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: красный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -7353,7 +7293,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>82% полиамид, 18% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -7420,19 +7360,31 @@
           <t>PASSION</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>для женщин</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Черные колготки в фигурную сеточку 3;4</t>
+          <t>Белые колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-23428-1299</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+          <t>id-20207-1299</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>99999</v>
@@ -7444,20 +7396,32 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23428/23428_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20207/20207_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20207/20207_2_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колготки черного цвета с плетением елочкой. Черные колготки в фигурную сеточку 3.4.  Черные колготки в фигурную сеточку 3.4. Модель: passion-ti017-3/4b.  Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
+          <t xml:space="preserve">Колготки-чулки произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s006-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Польша</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Высокое качество</t>
+        </is>
+      </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>82% полиамид, 18% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -7531,12 +7495,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Колготки с имитацией гольфин на поясе с</t>
+          <t>Черные контактные колготки Passion</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-23088-1299</t>
+          <t>id-20210-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -7560,12 +7524,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23088/23088_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20210/20210_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20210/20210_2_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Женские однотонные колготки с рисунком, имитирующим гольфины с поддержкой тонких пажей и кокетливыми бантиками. Колготки с имитацией гольфин на поясе с бантиком М (20.40 den).  Колготки с имитацией гольфин на поясе с бантиком М (20.40 den). Модель: passion-ti034-3b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93% полиамид, 7% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Колготки с имитацией трусиков с доступом произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Черные контактные колготки Passion.  Черные контактные колготки Passion. Модель: passion-s012-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7585,7 +7549,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>93% полиамид, 7% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -7659,22 +7623,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Колготки с имитацией гольфин на поясе с</t>
+          <t>Белые контактные колготки Passion</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-23089-1299</t>
+          <t>id-20209-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -7688,12 +7652,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23089/23089_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20209/20209_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20209/20209_2_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Женские однотонные колготки с рисунком, имитирующим гольфины с поддержкой тонких пажей и кокетливыми бантиками. Колготки с имитацией гольфин на поясе с бантиком L (20.40 den).  Колготки с имитацией гольфин на поясе с бантиком L (20.40 den). Модель: passion-ti034-4b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93% полиамид, 7% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+          <t xml:space="preserve">Колготки с имитацией трусиков с доступом произведены из высококачественной итальянской сетки приятной на ощупь, хорошо тянутся, не линяют при стирке. Белые контактные колготки Passion.  Белые контактные колготки Passion. Модель: passion-s012-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7713,7 +7677,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>93% полиамид, 7% эластан</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -7771,13 +7735,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -7787,16 +7751,24 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Вагинальные шарики Shanghai</t>
+          <t>Черные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-4017-1299</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+          <t>id-20249-1299</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>99999</v>
@@ -7808,17 +7780,17 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4017/4017_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4017/4017_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20249/20249_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20249/20249_2_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вагинальные шарики Shanghai.  Вагинальные шарики Shanghai. Модель: penth-p9230-7. Секс-игрушки. Шарики &gt; Стеклянные, металлические. Цвет: серебристый. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Черные колготки с имитацией чулок Passion.  Черные колготки с имитацией чулок Passion. Модель: passion-s013-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -7833,7 +7805,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>металл</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -7857,12 +7829,8 @@
       <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>2</v>
-      </c>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
       <c r="AH58" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7875,7 +7843,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>2 шарика, мешочек для хранения</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -7895,28 +7863,28 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Кожаная маска на глаза с</t>
+          <t>Красные колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-12062-1299</t>
+          <t>id-20248-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -7940,32 +7908,32 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12062/12062_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20248/20248_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20248/20248_2_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Кожаная маска на глаза с отстегивающимися шорами.  Кожаная маска на глаза с отстегивающимися шорами. Модель: penthouse-3025. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: красный. Материал: кожа. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Красные колготки с имитацией чулок Passion.  Красные колготки с имитацией чулок Passion. Модель: passion-s013-slr. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: красный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>кожа</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -8023,38 +7991,38 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Комплекты БДСМ</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Игольчатое колёсико Вартенберга для</t>
+          <t>Белые колготки с имитацией чулок</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-12059-1299</t>
+          <t>id-20250-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -8068,32 +8036,32 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12059/12059_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20250/20250_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20250/20250_2_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Игольчатое колёсико Вартенберга для острых ощущений.  Игольчатое колёсико Вартенберга для острых ощущений. Модель: penthouse-3060. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Цвет: серебряный с черным. Материал: металл, пластик. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Эротичные и сексуальные колготки с доступом. Колготки выполнены из тонкой сетки, плотно облегающей Ваши ножки, делая Вас самой желанной и притягательной. Белые колготки с имитацией чулок Passion.  Белые колготки с имитацией чулок Passion. Модель: passion-s013-slw. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: белый. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>металл, пластик</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -8131,7 +8099,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>колесико, бархатный мешочек для хранения</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -8151,13 +8119,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -8167,12 +8135,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Кожаный фиксатор для груди и предплечья</t>
+          <t>Черные контактные колготки с</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-15128-1299</t>
+          <t>id-20247-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -8196,32 +8164,32 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15128/15128_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20247/20247_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20247/20247_2_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Кожаный фиксатор для груди и предплечья.  Кожаный фиксатор для груди и предплечья. Модель: penthouse-3065. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: черный с серебряным. Материал: искусственная кожа. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">.Черные контактные колготки с фантазийным узором Passion.  Черные контактные колготки с фантазийным узором Passion. Модель: passion-s015-slb. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 80% полиамид, 20% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>искусственная кожа</t>
+          <t>80% полиамид, 20% эластан</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -8279,38 +8247,38 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Фиксатор для рук и ног с металличсекой</t>
+          <t>Классические черные чулочки под пояс на</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-14555-1299</t>
+          <t>id-21893-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -8324,32 +8292,32 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/14555/14555_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21893/21893_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21893/21893_2_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Фиксатор для рук и ног с металличсекой пластиной.  Фиксатор для рук и ног с металличсекой пластиной. Модель: penthouse-3089. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. БДСМ товары и фетиш &gt; Наборы. Цвет: черный. Материал: металл, неопрен, нейлон. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические черные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер).  Классические черные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер). Модель: passion-st001-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>металл, неопрен, нейлон</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -8387,7 +8355,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -8407,32 +8375,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Красные оковы на ноги с металлической</t>
+          <t>Классические красные чулочки под пояс</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-15080-1299</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+          <t>id-23066-1299</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>99999</v>
@@ -8444,32 +8420,32 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15080/15080_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23066/23066_1_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Красные оковы на ноги с металлической распоркой.  Красные оковы на ноги с металлической распоркой. Модель: penthouse-3094r. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. Цвет: красный с серебряным . Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические красные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер).  Классические красные чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер). Модель: passion-st001-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>искусственная кожа, металл</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -8527,32 +8503,40 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ошейник с замочком  и металлическими</t>
+          <t>Классические белые чулочки под пояс на</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-15069-1299</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+          <t>id-23068-1299</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>99999</v>
@@ -8564,32 +8548,32 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/15069/15069_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23068/23068_1_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Ошейник с замочком  и металлическими заклепками Penthouse.  Ошейник с замочком  и металлическими заклепками Penthouse. Модель: penthouse-3156. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. Цвет: черный с серебряным . Материал: искусственная кожа, металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические белые чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер).  Классические белые чулочки под пояс на широкой резинке Passion (17 den, 3.4 размер). Модель: passion-st001-mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>искусственная кожа, металл</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -8627,7 +8611,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>ошейник, подвесной замочек, 2 ключа</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8647,38 +8631,38 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Маска на подкладке Зоркий леопард</t>
+          <t>Классические красные чулочки под пояс</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-19634-1299</t>
+          <t>id-23065-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -8692,32 +8676,32 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19634/19634_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23065/23065_1_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Маска на подкладке Зоркий леопард.  Маска на подкладке Зоркий леопард. Модель: penthouse-3183. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный с леопардовым. Материал: искусственный мех, ткань(подкладка), резина. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические красные чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер).  Классические красные чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер). Модель: passion-st001-smr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>искусственный мех, ткань(подкладка), резина</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -8775,13 +8759,13 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Зажимы для сосков</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -8791,22 +8775,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Зажимы для сосков и клитора Penthouse</t>
+          <t>Классические белые чулочки под пояс на</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-20551-1299</t>
+          <t>id-23067-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -8820,32 +8804,32 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20551/20551_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20551/20551_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20551/20551_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23067/23067_1_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Зажимы для сосков и клитора Penthouse.  Зажимы для сосков и клитора Penthouse. Модель: penthouse-3286m. БДСМ. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: черный, золотой, серебряный. Материал: металл, пластик, ПВХ. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой плотной резинкой. Для повседневной носки рекомендуем использовать пояса. Классические белые чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер).  Классические белые чулочки под пояс на широкой резинке Passion (17 den, 1.2 размер). Модель: passion-st001-smw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>металл, пластик, ПВХ</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -8903,67 +8887,79 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Розовый пеньюар Penthouse Sweet </t>
+          <t>Черные чулочки под пояс с полосатой</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-25861-1299</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+          <t>id-21873-1299</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>99999</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25861/25861_25861_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21873/21873_1_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пеньюар в мелкую сетку с оригинальным ажурным лифом. В комплект входят трусики (стринги). Розовый пеньюар Penthouse Sweet &amp; spic L.XL.  Розовый пеньюар Penthouse Sweet . Модель: penthouse-4004303lxlp. США-Китай.  spic L/XL. Цвет: для женщин. 73% полиэстер, 27% эластанРетейлер: Wisteria. </t>
+          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Черные чулочки под пояс с полосатой резинкой Passion (17 den, 3.4 размер).  Черные чулочки под пояс с полосатой резинкой Passion (17 den, 3.4 размер). Модель: passion-st002-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Секс-игрушки</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Секс-игрушки</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>100% полиамид</t>
+        </is>
+      </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
@@ -8999,7 +8995,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -9019,13 +9015,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -9035,12 +9031,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Красный пеньюар с трусиками Penthouse</t>
+          <t>Черные чулочки под пояс с полосатой</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-26699-1299</t>
+          <t>id-21874-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -9050,7 +9046,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -9064,32 +9060,32 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26699/26699_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26699/26699_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26699/26699_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21874/21874_1_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Соблазнительный пеньюар с откровенным вырезом на груди. В комплект входят трусики (стринги). Красный пеньюар с трусиками Penthouse Libido boost SM.  Красный пеньюар с трусиками Penthouse Libido boost SM. Модель: penthouse-4004464smr. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Черные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер).  Черные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер). Модель: passion-st002-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>100% полиамид</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -9127,7 +9123,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -9147,13 +9143,13 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -9163,22 +9159,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Контактное ажурное боди с вырезами на</t>
+          <t>Красные чулочки под пояс с полосатой</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-26689-1299</t>
+          <t>id-23091-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -9192,32 +9188,32 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26689/26689_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26689/26689_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26689/26689_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23091/23091_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23091/23091_2_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный боди с двумя вырезами на груди. Дизайн выполнен в виде мелкой сетки, дополненной контрастным ажурными вставками, подчеркивающими изгибы тела. Контактное ажурное боди с вырезами на груди Penthouse Turned on SM.  Контактное ажурное боди с вырезами на груди Penthouse Turned on SM. Модель: penthouse-4004792smb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Красные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер).  Красные чулочки под пояс с полосатой резинкой Passion (17 den, 1.2 размер). Модель: passion-st002-smr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>100% полиамид</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -9255,7 +9251,7 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -9275,13 +9271,13 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -9291,22 +9287,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Контактное ажурное боди с вырезами на</t>
+          <t>Черные чулочки под пояс с полосатой</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-26690-1299</t>
+          <t>id-21872-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -9320,32 +9316,32 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26690/26690_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26690/26690_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26690/26690_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21872/21872_1_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальный боди с двумя вырезами на груди. Дизайн выполнен в виде мелкой сетки, дополненной контрастным ажурными вставками, подчеркивающими изгибы тела. Контактное ажурное боди с вырезами на груди Penthouse Turned on ML.  Контактное ажурное боди с вырезами на груди Penthouse Turned on ML. Модель: penthouse-4004808mlb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Черные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер).  Черные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер). Модель: passion-st002-xlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>100% полиамид</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -9383,7 +9379,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -9403,13 +9399,13 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -9419,22 +9415,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Комбинезон с открытыми плечами и</t>
+          <t>Красные чулочки под пояс с полосатой</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-25923-1299</t>
+          <t>id-23090-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -9448,17 +9444,17 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25923/25923_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25923/25923_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25923/25923_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23090/23090_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23090/23090_2_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кетсьют (боди-комбинезон) в мелкую сетку с оригинальным рисунком, подчеркивающим достоинства фигуры и скрывающим ее недостатки. Комбинезон с открытыми плечами и имитацией чулок Penthouse Top-notch SL.  Комбинезон с открытыми плечами и имитацией чулок Penthouse Top-notch SL. Модель: penthouse-4005201slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с полосатой резинкой. Красные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер).  Красные чулочки под пояс с полосатой резинкой Passion (17 den, 5 размер). Модель: passion-st002-xlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный. Материал: 100% полиамид. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -9473,7 +9469,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>100% полиамид</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -9511,7 +9507,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9531,13 +9527,13 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -9547,22 +9543,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Контактный комбинезон с фантазийным</t>
+          <t>Графитовые чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-26653-1299</t>
+          <t>id-21879-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -9576,32 +9572,32 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26653/26653_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26653/26653_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26653/26653_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21879/21879_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21879/21879_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21879/21879_3_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кетсьют (боди-комбинезон) в мелкую сетку с оригинальным рисунком, подчеркивающим достоинства фигуры и скрывающим ее недостатки. В самом интересном месте имеется разрез для страстной ночи-любви. Стринги в комплект не входят. Контактный комбинезон с фантазийным узором Penthouse Dirty mind XL.  Контактный комбинезон с фантазийным узором Penthouse Dirty mind XL. Модель: penthouse-4005256xlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Графитовые чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер).  Графитовые чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st003-mlg. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: графитовый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -9639,7 +9635,7 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -9659,13 +9655,13 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -9675,22 +9671,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Черный кружевной комплект Penthouse</t>
+          <t>Красные чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-26692-1299</t>
+          <t>id-21882-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -9704,32 +9700,32 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26692/26692_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26692/26692_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26692/26692_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21882/21882_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21882/21882_2_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект эротического белья, состоящий из ажурного бюстгальтера без косточек и трусиков (стринг). Бретельки лифа регулируются по объему. Черный кружевной комплект Penthouse Double spice LXL.  Черный кружевной комплект Penthouse Double spice LXL. Модель: penthouse-4005362lxlb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 96% полиэстер, 4% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер).  Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st003-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>96% полиэстер, 4% эластан</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -9767,7 +9763,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>лиф, стринги</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -9787,13 +9783,13 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -9803,22 +9799,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Кружевной комплект Penthouse Double</t>
+          <t>Черные чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-26680-1299</t>
+          <t>id-21878-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -9832,32 +9828,32 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26680/26680_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26680/26680_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26680/26680_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21878/21878_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21878/21878_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21878/21878_3_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект эротического белья, состоящий из ажурного бюстгальтера без косточек и трусиков (стринг). Бретельки лифа регулируются по объему. Кружевной комплект Penthouse Double spice ML.  Кружевной комплект Penthouse Double spice ML. Модель: penthouse-4005386mlb. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: кофе с молоком. Материал: 96% полиэстер, 4% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер).  Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер). Модель: passion-st003-xlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>96% полиэстер, 4% эластан</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -9895,7 +9891,7 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>лиф, стринги</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -9915,13 +9911,13 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -9931,22 +9927,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Кружевной комплект Penthouse Double</t>
+          <t>Красные чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-26681-1299</t>
+          <t>id-21881-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -9960,32 +9956,32 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26681/26681_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26681/26681_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26681/26681_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21881/21881_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21881/21881_2_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект эротического белья, состоящий из ажурного бюстгальтера без косточек и трусиков (стринг). Бретельки лифа регулируются по объему. Кружевной комплект Penthouse Double spice LXL.  Кружевной комплект Penthouse Double spice LXL. Модель: penthouse-4005393lxl. Белье. Эротическое белье для женщин &gt; Комплекты. Цвет: кофе с молоком. Материал: 96% полиэстер, 4% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер).  Красные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 5 размер). Модель: passion-st003-xlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>96% полиэстер, 4% эластан</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -10023,7 +10019,7 @@
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>лиф, стринги</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -10043,13 +10039,13 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -10059,22 +10055,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Бесшовное мини-платье с вырезами</t>
+          <t>Черные чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-26685-1299</t>
+          <t>id-25401-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>40-46</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -10088,32 +10084,32 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26685/26685_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26685/26685_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26685/26685_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25401/25401_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25401/25401_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25401/25401_3_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бесшовное мини-платье с оригинальными вырезами соблазнительно облегает тело, будоража сознание вашего партнера. Бесшовное мини-платье с вырезами Penthouse Flame on the rock SL.  Бесшовное мини-платье с вырезами Penthouse Flame on the rock SL. Модель: penthouse-4005492slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер).  Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st003mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -10151,7 +10147,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>мини-платье</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -10171,13 +10167,13 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10187,22 +10183,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ажурное платье в комплекте с трусиками</t>
+          <t>Черные чулочки с широкой кружевной</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-26691-1299</t>
+          <t>id-25402-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -10216,32 +10212,32 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26691/26691_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26691/26691_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26691/26691_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25402/25402_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25402/25402_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25402/25402_3_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ажурное платье в комплекте с трусиками и ажурным головным аксессуаром. Ажурное платье в комплекте с трусиками и повязкой Poison cookie LXL.  Ажурное платье в комплекте с трусиками и повязкой Poison cookie LXL. Модель: penthouse-4005775lxlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе. Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 1.2 размер).  Черные чулочки с широкой кружевной резинкой на силиконе Passion (17 den, 1.2 размер). Модель: passion-st003smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -10279,7 +10275,7 @@
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>мини-платье, стринги, повязка на голову</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
@@ -10299,13 +10295,13 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10315,12 +10311,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Соблазнительный полупрозрачный халатик</t>
+          <t>Черные чулки с красным кружевом с</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-25868-1299</t>
+          <t>id-20183-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -10344,17 +10340,17 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25868/25868_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25868/25868_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25868/25868_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20183/20183_1_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Откровенный полупрозрачный халатик с атласным поясом. Крой халатика рассчитан носить его не на запАх, а как накидку, которую легко и игриво можно в считанные секунды сбросить с себя. Просто незаменимая вещь при романтическом вечере.В комплекте стринги. Соблазнительный полупрозрачный халатик Penthouse Midnight mirage SL.  Соблазнительный полупрозрачный халатик Penthouse Midnight mirage SL. Модель: penthouse-4005966slb. Белье. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Черные чулки с красным кружевом (с силиконом) 3.4.  Черные чулки с красным кружевом (с силиконом) 3.4. Модель: passion-st004-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -10369,7 +10365,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -10407,7 +10403,7 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>халатик, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -10427,13 +10423,13 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10443,22 +10439,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Пеньюар в комплекте с трусиками</t>
+          <t>Красные чулки с черным кружевом с</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-25895-1299</t>
+          <t>id-23435-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -10472,17 +10468,17 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25895/25895_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25895/25895_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25895/25895_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23435/23435_1_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пеньюар в мелкую сетку с оригинальным ажурным лифом. В комплект входят трусики (стринги). Пеньюар в комплекте с трусиками Penthouse Bedtime story SM.  Пеньюар в комплекте с трусиками Penthouse Bedtime story SM. Модель: penthouse-4006222smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 73% полиэстер, 27% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Красные чулки с черным кружевом (с силиконом) 3.4 (17 Den).  Красные чулки с черным кружевом (с силиконом) 3.4 (17 Den). Модель: passion-st004-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный, черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -10497,7 +10493,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>73% полиэстер, 27% эластан</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -10535,7 +10531,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10555,13 +10551,13 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10571,12 +10567,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Черный пеньюар со стрингами Penthouse</t>
+          <t>Черные чулки с красным кружевом с</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-26659-1299</t>
+          <t>id-20182-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -10600,32 +10596,32 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26659/26659_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26659/26659_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26659/26659_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20182/20182_1_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мини-платье в мелкую сеточку с оригинальным ажурным лифом. Черный пеньюар со стрингами Penthouse All yours SM.  Черный пеньюар со стрингами Penthouse All yours SM. Модель: penthouse-4006499smb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Черные чулки с красным кружевом (с силиконом) 1.2.  Черные чулки с красным кружевом (с силиконом) 1.2. Модель: passion-st004-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный с красным. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -10663,7 +10659,7 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -10683,13 +10679,13 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10699,22 +10695,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Черный пеньюар со стрингами Penthouse</t>
+          <t>Черные чулки с красным кружевом с</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-26660-1299</t>
+          <t>id-20181-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -10728,17 +10724,17 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26660/26660_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26660/26660_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26660/26660_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20181/20181_1_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мини-платье в мелкую сеточку с оригинальным ажурным лифом. Черный пеньюар со стрингами Penthouse All yours ML.  Черный пеньюар со стрингами Penthouse All yours ML. Модель: penthouse-4006505mlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические тонкие чулки с широкой кружевной резинкой на силиконовой основе прекрасно держатся на ножке и не сползают. Черные чулки с красным кружевом (с силиконом) 5.  Черные чулки с красным кружевом (с силиконом) 5. Модель: passion-st004-xxlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный с красным. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -10753,7 +10749,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -10791,7 +10787,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -10811,13 +10807,13 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -10827,22 +10823,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Белый пеньюар со стрингами Penthouse</t>
+          <t>Белые чулочки с полосатой резинкой на</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-26656-1299</t>
+          <t>id-21876-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>40-42</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -10856,32 +10852,32 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26656/26656_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26656/26656_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26656/26656_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21876/21876_1_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мини-платье в мелкую сеточку с оригинальным ажурным лифом. Белый пеньюар со стрингами Penthouse All yours SM.  Белый пеньюар со стрингами Penthouse All yours SM. Модель: penthouse-4006529smw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: белый. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Нежные тонкие чулки с полосатой резинкой на силиконовой основе. Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 3.4 размер).  Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 3.4 размер). Модель: passion-st005-mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -10919,7 +10915,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10939,13 +10935,13 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -10955,22 +10951,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Полупрозрачный ажурный халат Penthouse</t>
+          <t>Белые чулочки с полосатой резинкой на</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-25871-1299</t>
+          <t>id-21875-1299</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -10984,17 +10980,17 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25871/25871_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25871/25871_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25871/25871_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21875/21875_1_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Откровенный полупрозрачный ажурный халат с атласным поясом. В комплект входят трусики (стринги). Полупрозрачный ажурный халат Penthouse Sweet retreat XL.  Полупрозрачный ажурный халат Penthouse Sweet retreat XL. Модель: penthouse-4006567xlb. Белье. Эротическое белье для женщин &gt; Халатики. Цвет: черный. Материал: 95% нейлон, 5% спандекс. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Нежные тонкие чулки с полосатой резинкой на силиконовой основе. Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 1.2 размер).  Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 1.2 размер). Модель: passion-st005-smw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
@@ -11009,7 +11005,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>95% нейлон, 5% спандекс</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -11047,7 +11043,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>халат, стринги</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -11067,38 +11063,38 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Наручники эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Наручники металлические мощные</t>
+          <t>Белые чулочки с полосатой резинкой на</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-18731-1299</t>
+          <t>id-21877-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -11107,22 +11103,22 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Толщина — 0,7 см</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18731/18731_вес_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18731/18731_-_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18731/18731_867_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18731/18731_грамм_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21877/21877_1_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Наручники металлические мощные.  Наручники металлические мощные. Модель: penthouse-p3015M. Секс-игрушки. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: серебряный. 1 2 3 4 5Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Нежные тонкие чулки с полосатой резинкой на силиконовой основе. Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 5 размер).  Белые чулочки с полосатой резинкой на силиконе Passion (17 den, 5 размер). Модель: passion-st005-xlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
@@ -11137,7 +11133,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -11161,12 +11157,8 @@
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
       <c r="AE84" t="inlineStr"/>
-      <c r="AF84" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>6.2</v>
-      </c>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
       <c r="AH84" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11179,7 +11171,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ширина — 3,8 см</t>
+          <t>чулочки</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -11199,32 +11191,40 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Металлическое двойное эрекционное</t>
+          <t>Красные чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-19521-1299</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+          <t>id-20195-1299</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>99999</v>
@@ -11236,32 +11236,32 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19521/19521_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19521/19521_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20195/20195_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20195/20195_1_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эрекционные кольца используются для продления полового акта и усиления ощущений. Два кольца выполнены из металла и имеют различный диаметр. Кольца объединены кожаной лентой. Металлическое двойное эрекционное кольцо.  Металлическое двойное эрекционное кольцо. Модель: penthouse-p3076. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. БДСМ товары и фетиш &gt; Аксессуары. Цвет: черный с серебристым. Материал: металл, кожа. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Красные чулки в мелкую сеточку (с силиконом) 3.4.  Красные чулки в мелкую сеточку (с силиконом) 3.4. Модель: passion-st020-mlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>металл, кожа</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S85" t="inlineStr"/>
@@ -11285,12 +11285,8 @@
       <c r="AC85" t="inlineStr"/>
       <c r="AD85" t="inlineStr"/>
       <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>3.8</v>
-      </c>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
       <c r="AH85" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11323,38 +11319,38 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Пояса верности</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Пояс верности для мужчин металлический</t>
+          <t>Белые чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-18729-1299</t>
+          <t>id-20190-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>XXXL</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>56-58</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -11363,35 +11359,39 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>пояс верности (насадка плюс кольцо), замочек с ключами</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18729/18729_18729_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20190/20190_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20190/20190_1_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Пояс верности для мужчин металлический.  Пояс верности для мужчин металлический. Модель: penthouse-p3130m. БДСМ. БДСМ товары и фетиш &gt; Пояса верности. Цвет: серебряный. металлБренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Белые чулки в мелкую сеточку (с силиконом) 3.4.  Белые чулки в мелкую сеточку (с силиконом) 3.4. Модель: passion-st020-mlw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> внутренний диаметр кольца 4,5 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -11447,54 +11447,62 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Анальный стимулятор с двойными шариками</t>
+          <t>Черные чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-18909-1299</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+          <t>id-20196-1299</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>99999</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Анальный стимулятор с двойными шариками и кольцом</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18909/18909_18909_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20196/20196_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20196/20196_1_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Анальный стимулятор с двойными шариками и кольцом.  Анальный стимулятор с двойными шариками и кольцом. Модель: penthouse-p3137M. Секс-игрушки. Анальные стимуляторы и пробки &gt; Шарики и цепочки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Насадки и кольца &gt; Эрекционные. БДСМ товары и фетиш &gt; Анальные крюки для фиксации и подвешивания. Цвет: серебряный. металлБренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Черные чулки в мелкую сеточку (с силиконом) 1.2.  Черные чулки в мелкую сеточку (с силиконом) 1.2. Модель: passion-st020-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -11507,7 +11515,11 @@
           <t>Стандартный</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>87% полиамид, 13% эластан</t>
+        </is>
+      </c>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
@@ -11529,12 +11541,8 @@
       <c r="AC87" t="inlineStr"/>
       <c r="AD87" t="inlineStr"/>
       <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
       <c r="AH87" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -11547,7 +11555,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> внутренний диаметр кольца 4,5 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11567,38 +11575,38 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Эластичный шлем с открытым ртом и</t>
+          <t>Белые чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-22215-1299</t>
+          <t>id-20192-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -11612,32 +11620,32 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22215/22215_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/22215/22215_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20192/20192_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20192/20192_1_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Шлем Бандитка с прорезями для глаз и рта. Размер универсальный. Эластичный шлем с открытым ртом и глазами.  Эластичный шлем с открытым ртом и глазами. Модель: penthouse-p3174b. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Белые чулки в мелкую сеточку (с силиконом) 1.2.  Белые чулки в мелкую сеточку (с силиконом) 1.2. Модель: passion-st020-smw. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: белый. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -11695,38 +11703,38 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Эластичный шлем с открытым ртом</t>
+          <t>Черные чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-22214-1299</t>
+          <t>id-20198-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -11740,32 +11748,32 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/22214/22214_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20198/20198_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20198/20198_1_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Шлем плотно прилегает к голове, не сковывая движения рта. Размер универсальный. Эластичный шлем с открытым ртом.  Эластичный шлем с открытым ртом. Модель: penthouse-p3175b. БДСМ. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: черный. Материал: 94% полиамид, 6% эластан. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Черные чулки в мелкую сеточку (с силиконом) 5.  Черные чулки в мелкую сеточку (с силиконом) 5. Модель: passion-st020-xxlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>94% полиамид, 6% эластан</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -11823,32 +11831,40 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Маски эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Маска тканевая красно-черная</t>
+          <t>Телесные чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-19070-1299</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+          <t>id-23092-1299</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>99999</v>
@@ -11860,32 +11876,32 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19070/19070_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19070/19070_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23092/23092_1_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Маска тканевая красно-черная.  Маска тканевая красно-черная. Модель: penthouse-p3179RB. Секс-игрушки. БДСМ товары и фетиш &gt; Маски, шлемы. Цвет: красно-черный. Материал: текстиль. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Чулочки в мелкую сетку с кружевным верхом, с силиконом. Ширина кружева 9 см. Телесные чулки в мелкую сеточку (с силиконом) 5.  Телесные чулки в мелкую сеточку (с силиконом) 5. Модель: passion-st020-xxlbg. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: телесный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>текстиль</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -11900,21 +11916,13 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W90" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="X90" t="n">
-        <v>21.45</v>
-      </c>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
       <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr"/>
@@ -11951,13 +11959,13 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -11967,16 +11975,24 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Комплект БДСМ: фиксатор шея-руки и</t>
+          <t>Красные чулки в мелкую сеточку с</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-19124-1299</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+          <t>id-20194-1299</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>50-52</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>99999</v>
@@ -11988,32 +12004,32 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19124/19124_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19124/19124_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20194/20194_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20194/20194_1_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Комплект БДСМ: фиксатор шея-руки и стринги с заклепками.  Комплект БДСМ: фиксатор шея-руки и стринги с заклепками. Модель: penthouse-p3221b. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. БДСМ товары и фетиш &gt; Наборы. Цвет: черный с серебряным. Материал: кожа искусственная, металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические чулки из мелкой сетки с широкой кружевной резинкой на силиконовой основе. Чулки отлично держатся на ножке и не сползают. Красные чулки в мелкую сеточку (с силиконом) 5.  Красные чулки в мелкую сеточку (с силиконом) 5. Модель: passion-st020-xxlr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>кожа искусственная, металл</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -12071,38 +12087,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Комплекты БДСМ</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Цепочка овально-звеньевая с карабинами</t>
+          <t>Черные чулки в крупную сетку с</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-19519-1299</t>
+          <t>id-20188-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>50-52</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -12116,32 +12132,32 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19519/19519_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20188/20188_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20188/20188_1_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Цепочка овально-звеньевая с карабинами 28 см.  Цепочка овально-звеньевая с карабинами 28 см. Модель: penthouse-p3233M. БДСМ. БДСМ товары и фетиш &gt; Аксессуары. Цвет: серебристый. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Черные чулки в крупную сетку (с силиконом) 5.  Черные чулки в крупную сетку (с силиконом) 5. Модель: passion-st021-5xxlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>металл</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -12199,28 +12215,28 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Цепь с двумя карабинами</t>
+          <t>Черные чулки в крупную сетку с</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-19106-1299</t>
+          <t>id-20189-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -12244,32 +12260,32 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19106/19106_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20189/20189_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20189/20189_1_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Цепь с двумя карабинами.  Цепь с двумя карабинами. Модель: penthouse-p3234M. БДСМ. БДСМ товары и фетиш &gt; Фиксаторы и сбруи. Цвет: серебряный. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Черные чулки в крупную сетку (с силиконом) 3.4.  Черные чулки в крупную сетку (с силиконом) 3.4. Модель: passion-st021-mlb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>металл</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
@@ -12327,38 +12343,38 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Фиксаторы эротик</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Цепочка овально-звеньевая с карабинами</t>
+          <t>Черные чулки в крупную сетку с</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-19520-1299</t>
+          <t>id-20187-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>40-42</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -12372,32 +12388,32 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19520/19520_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20187/20187_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20187/20187_1_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Цепь с карабинами из коллекции PentHouse. Общая длина составляет 48 см. Цепочка овально-звеньевая с карабинами 48 см.  Цепочка овально-звеньевая с карабинами 48 см. Модель: penthouse-p3235M. БДСМ. БДСМ товары и фетиш &gt; Кандалы, фиксаторы на ноги. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. БДСМ товары и фетиш &gt; Аксессуары. Цвет: серебристый. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Черные чулки в крупную сетку (с силиконом) 1.2.  Черные чулки в крупную сетку (с силиконом) 1.2. Модель: passion-st021-smb. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: черный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>металл</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S94" t="inlineStr"/>
@@ -12455,13 +12471,13 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Зажимы для сосков</t>
+          <t>Чулки эротик</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -12471,16 +12487,24 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Мощные зажимы на соски со звенящим</t>
+          <t>Красные чулки в крупную сетку с</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-18962-1299</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+          <t>id-20186-1299</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>99999</v>
@@ -12492,32 +12516,32 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18962/18962_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18962/18962_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20186/20186_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20186/20186_1_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Мощные зажимы на соски со звенящим бубенчиком.  Мощные зажимы на соски со звенящим бубенчиком. Модель: penthouse-p3236M. Секс-игрушки. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серебряный с бронзовым. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Классические чулки из крупной сетки с широкой кружевной резинкой на силиконовой основе. Чулочки прекрасно держатся на ножке и не сползают. Красные чулки в крупную сетку (с силиконом) 1.2.  Красные чулки в крупную сетку (с силиконом) 1.2. Модель: passion-st021-smr. Белье. Эротическое белье для женщин &gt; Чулки, гольфины, леггинсы. Цвет: красный. Материал: 87% полиамид, 13% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>металл</t>
+          <t>87% полиамид, 13% эластан</t>
         </is>
       </c>
       <c r="S95" t="inlineStr"/>
@@ -12534,15 +12558,9 @@
       </c>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="Z95" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
       <c r="AC95" t="inlineStr"/>
       <c r="AD95" t="inlineStr"/>
@@ -12581,28 +12599,28 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Зажимы для сосков</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Мощные зажимы для груди с кольцами</t>
+          <t>Черные колготки в крупную сеточку 1;2</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-19104-1299</t>
+          <t>id-23425-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -12621,35 +12639,39 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Мощные зажимы для груди с кольцами</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19104/19104_19104_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23425/23425_1_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Мощные зажимы для груди с кольцами.  Мощные зажимы для груди с кольцами. Модель: penthouse-p3237M. БДСМ. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серебряный. металлБренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Женственные колготки в сеточку черного цвета. Черные колготки в крупную сеточку 1.2.  Черные колготки в крупную сеточку 1.2. Модель: passion-ti016-1/2b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>82% полиамид, 18% эластан</t>
+        </is>
+      </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr">
         <is>
@@ -12685,7 +12707,7 @@
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр кольца 4,5 см </t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
@@ -12705,38 +12727,38 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Зажимы для сосков</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Мощные зажимы для груди с тяжелой</t>
+          <t>Черные колготки в крупную сеточку 3;4</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-19101-1299</t>
+          <t>id-23426-1299</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -12750,32 +12772,32 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19101/19101_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19101/19101_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23426/23426_1_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Мощные зажимы для груди с тяжелой цепочкой.  Мощные зажимы для груди с тяжелой цепочкой. Модель: penthouse-p3238M. БДСМ. Красивая грудь &gt; Зажимы для сосков, стимуляторы. БДСМ товары и фетиш &gt; Зажимы для сосков. Цвет: серебряный. Материал: металл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Женственные колготки в сеточку черного цвета. Черные колготки в крупную сеточку 3.4.  Черные колготки в крупную сеточку 3.4. Модель: passion-ti016-3/4b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>металл</t>
+          <t>82% полиамид, 18% эластан</t>
         </is>
       </c>
       <c r="S97" t="inlineStr"/>
@@ -12833,13 +12855,13 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -12849,16 +12871,24 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Маленькая рельефная металлическая</t>
+          <t>Черные колготки в фигурную сеточку 1;2</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-18730-1299</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
+          <t>id-23427-1299</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>40-42</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>99999</v>
@@ -12870,32 +12900,32 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18730/18730_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/18730/18730_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23427/23427_1_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Маленькая рельефная металлическая пробка с красно-алым кристаллом.  Маленькая рельефная металлическая пробка с красно-алым кристаллом. Модель: penthouse-p3243M-11. Секс-игрушки. Анальные стимуляторы и пробки &gt; Металлические пробки. Цвет: золотой с красно-алым. Материал: металл, кристалл. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Колготки черного цвета с плетением елочкой. Черные колготки в фигурную сеточку 1.2.  Черные колготки в фигурную сеточку 1.2. Модель: passion-ti017-1/2b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>металл, кристалл</t>
+          <t>82% полиамид, 18% эластан</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
@@ -12912,29 +12942,15 @@
       </c>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="Z98" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA98" t="n">
-        <v>7</v>
-      </c>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
       <c r="AC98" t="inlineStr"/>
-      <c r="AD98" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
       <c r="AH98" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -12947,7 +12963,7 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>пробка, мешочек для хранения</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -12967,28 +12983,24 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>для женщин</t>
-        </is>
-      </c>
+          <t>PASSION</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Анальная малая золотистая пробка с</t>
+          <t>Черные колготки в фигурную сеточку 3;4</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-18964-1299</t>
+          <t>id-23428-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -13004,32 +13016,20 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18964/18964_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23428/23428_1_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Анальная малая золотистая пробка с полосатым хвостом.  Анальная малая золотистая пробка с полосатым хвостом. Модель: penthouse-p3246M. Секс-игрушки. Анальные стимуляторы и пробки &gt; Металлические пробки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: золотистый, полосатый мех. Материал: металл,мех. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>Китай</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Колготки черного цвета с плетением елочкой. Черные колготки в фигурную сеточку 3.4.  Черные колготки в фигурную сеточку 3.4. Модель: passion-ti017-3/4b.  Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 82% полиамид, 18% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr">
         <is>
-          <t>металл,мех</t>
+          <t>82% полиамид, 18% эластан</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -13046,25 +13046,15 @@
       </c>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="Z99" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA99" t="n">
-        <v>26</v>
-      </c>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
       <c r="AC99" t="inlineStr"/>
       <c r="AD99" t="inlineStr"/>
       <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
       <c r="AH99" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -13097,13 +13087,13 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -13113,16 +13103,24 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Анальная малая серебристая пробка с</t>
+          <t>Колготки с имитацией гольфин на поясе с</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-18966-1299</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
+          <t>id-23088-1299</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>99999</v>
@@ -13134,32 +13132,32 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/18966/18966_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23088/23088_1_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Анальная малая серебристая пробка с полосатым хвостом.  Анальная малая серебристая пробка с полосатым хвостом. Модель: penthouse-p3249M. Секс-игрушки. Анальные стимуляторы и пробки &gt; Металлические пробки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: серебряный, полосатый мех. Материал: металл, мех. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Женские однотонные колготки с рисунком, имитирующим гольфины с поддержкой тонких пажей и кокетливыми бантиками. Колготки с имитацией гольфин на поясе с бантиком М (20.40 den).  Колготки с имитацией гольфин на поясе с бантиком М (20.40 den). Модель: passion-ti034-3b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93% полиамид, 7% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>металл, мех</t>
+          <t>93% полиамид, 7% эластан</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -13176,25 +13174,15 @@
       </c>
       <c r="W100" t="inlineStr"/>
       <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="Z100" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>27</v>
-      </c>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
       <c r="AC100" t="inlineStr"/>
       <c r="AD100" t="inlineStr"/>
       <c r="AE100" t="inlineStr"/>
-      <c r="AF100" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
       <c r="AH100" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -13227,32 +13215,40 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Колготки эротик</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PENTHOUSE</t>
+          <t>PASSION</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Малая золотая пробочка с белым пушистым</t>
+          <t>Колготки с имитацией гольфин на поясе с</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-19419-1299</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
+          <t>id-23089-1299</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>99999</v>
@@ -13264,32 +13260,32 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19419/19419_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23089/23089_1_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Малая золотая пробочка с белым пушистым хвостиком Penthouse.  Малая золотая пробочка с белым пушистым хвостиком Penthouse. Модель: penthouse-p3268. Секс-игрушки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Металлические пробки. Анальные стимуляторы и пробки &gt; Пробки с хвостом. Цвет: белый с золотым. Материал: металл, натуральный мех. Батареек нет в комплекте. Бренд: PENTHOUSE. </t>
+          <t xml:space="preserve">Женские однотонные колготки с рисунком, имитирующим гольфины с поддержкой тонких пажей и кокетливыми бантиками. Колготки с имитацией гольфин на поясе с бантиком L (20.40 den).  Колготки с имитацией гольфин на поясе с бантиком L (20.40 den). Модель: passion-ti034-4b. Белье. Эротическое белье для женщин &gt; Колготки. Цвет: черный. Материал: 93% полиамид, 7% эластан. Батареек нет в комплекте. Бренд: PASSION. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Польша</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>металл, натуральный мех</t>
+          <t>93% полиамид, 7% эластан</t>
         </is>
       </c>
       <c r="S101" t="inlineStr"/>
@@ -13306,29 +13302,15 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Z101" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>21</v>
-      </c>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
       <c r="AC101" t="inlineStr"/>
-      <c r="AD101" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="inlineStr"/>
       <c r="AH101" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
